--- a/spmv_prof/prof/spmv_nvprof.xlsx
+++ b/spmv_prof/prof/spmv_nvprof.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
-    <sheet name="Metrics" sheetId="10" r:id="rId3"/>
-    <sheet name="Events" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="10" r:id="rId2"/>
+    <sheet name="Events" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_0" localSheetId="3">Events!#REF!</definedName>
-    <definedName name="_0_1" localSheetId="3">Events!$A$1:$C$269</definedName>
+    <definedName name="_0" localSheetId="2">Events!#REF!</definedName>
+    <definedName name="_0_1" localSheetId="2">Events!$A$1:$C$269</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="433">
   <si>
     <t>Event Name</t>
   </si>
@@ -1073,9 +1072,6 @@
   </si>
   <si>
     <t>tex1D</t>
-  </si>
-  <si>
-    <t>more can be found in README.txt</t>
   </si>
   <si>
     <t>SPMV</t>
@@ -1416,16 +1412,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1439,6 +1429,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1720,2595 +1721,2762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:JG50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JG38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="14.33203125" style="5"/>
+    <col min="1" max="16384" width="14.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:267" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="3" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="I2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="CZ2" s="4"/>
+    </row>
+    <row r="3" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="4" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="8">
+        <v>12135264</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3729324</v>
+      </c>
+      <c r="L3" s="8">
+        <v>7528197</v>
+      </c>
+      <c r="M3" s="8">
+        <v>809324</v>
+      </c>
+      <c r="N3" s="8">
+        <v>99657080</v>
+      </c>
+      <c r="O3" s="8">
+        <v>9146845</v>
+      </c>
+      <c r="P3" s="8">
+        <f>N3/K3</f>
+        <v>26.722558833718924</v>
+      </c>
+      <c r="CW3" s="9"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+    </row>
+    <row r="4" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="5" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="I4" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="8">
+        <v>10842908</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3539172</v>
+      </c>
+      <c r="L4" s="8">
+        <v>6161679</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1070864</v>
+      </c>
+      <c r="N4" s="8">
+        <v>92886508</v>
+      </c>
+      <c r="O4" s="8">
+        <v>8303407</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:P12" si="0">N4/K4</f>
+        <v>26.245265276737044</v>
+      </c>
+      <c r="CW4" s="9"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="9"/>
+    </row>
+    <row r="5" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="6" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="I5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J5" s="8">
+        <v>10812959</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3476298</v>
+      </c>
+      <c r="L5" s="8">
+        <v>6746647</v>
+      </c>
+      <c r="M5" s="8">
+        <v>863843</v>
+      </c>
+      <c r="N5" s="8">
+        <v>91632448</v>
+      </c>
+      <c r="O5" s="8">
+        <v>8474333</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="0"/>
+        <v>26.35920395777347</v>
+      </c>
+      <c r="CW5" s="9"/>
+      <c r="CX5" s="9"/>
+      <c r="CY5" s="9"/>
+      <c r="CZ5" s="9"/>
+      <c r="DA5" s="9"/>
+      <c r="DB5" s="9"/>
+    </row>
+    <row r="6" spans="1:267" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="7" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="I6" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J6" s="8">
+        <v>10828202</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3492804</v>
+      </c>
+      <c r="L6" s="8">
+        <v>6441535</v>
+      </c>
+      <c r="M6" s="8">
+        <v>944540</v>
+      </c>
+      <c r="N6" s="8">
+        <v>91402732</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8330615</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>26.168869481367977</v>
+      </c>
+      <c r="CW6" s="9"/>
+      <c r="CX6" s="9"/>
+      <c r="CY6" s="9"/>
+      <c r="CZ6" s="9"/>
+      <c r="DA6" s="9"/>
+      <c r="DB6" s="9"/>
+    </row>
+    <row r="7" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5544355</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3072918</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2478135</v>
+      </c>
+      <c r="M7" s="12">
+        <v>727125</v>
+      </c>
+      <c r="N7" s="12">
+        <v>80939542</v>
+      </c>
+      <c r="O7" s="12">
+        <v>3932385</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>26.339636137378218</v>
+      </c>
+      <c r="CW7" s="11"/>
+    </row>
+    <row r="8" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="12">
+        <v>10920296</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3492804</v>
+      </c>
+      <c r="L8" s="12">
+        <v>6927078</v>
+      </c>
+      <c r="M8" s="12">
+        <v>759227</v>
+      </c>
+      <c r="N8" s="12">
+        <v>91902700</v>
+      </c>
+      <c r="O8" s="12">
+        <v>8445532</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>26.312011781937951</v>
+      </c>
+      <c r="CW8" s="11"/>
+    </row>
+    <row r="9" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E9" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="J9" s="12">
+        <v>43169960</v>
+      </c>
+      <c r="K9" s="12">
+        <v>3283080</v>
+      </c>
+      <c r="L9" s="12">
+        <v>42899856</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1129644</v>
+      </c>
+      <c r="N9" s="12">
+        <v>387283284</v>
+      </c>
+      <c r="O9" s="12">
+        <v>45159144</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>117.96340144011111</v>
+      </c>
+      <c r="CW9" s="11"/>
+    </row>
+    <row r="10" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D10" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F10" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5920853</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3301863</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2441918</v>
+      </c>
+      <c r="M10" s="12">
+        <v>808848</v>
+      </c>
+      <c r="N10" s="12">
+        <v>86290312</v>
+      </c>
+      <c r="O10" s="12">
+        <v>4059614</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>26.133825661452338</v>
+      </c>
+      <c r="CW10" s="11"/>
+    </row>
+    <row r="11" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E11" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G11" s="8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="9" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>332</v>
-      </c>
+      <c r="I11" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="J11" s="12">
+        <v>5454729</v>
+      </c>
+      <c r="K11" s="12">
+        <v>3072918</v>
+      </c>
+      <c r="L11" s="12">
+        <v>2488031</v>
+      </c>
+      <c r="M11" s="12">
+        <v>728780</v>
+      </c>
+      <c r="N11" s="12">
+        <v>80939548</v>
+      </c>
+      <c r="O11" s="12">
+        <v>3945591</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>26.339638089919745</v>
+      </c>
+      <c r="CW11" s="11"/>
     </row>
     <row r="12" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>427</v>
+      <c r="A12" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J12" s="12">
+        <v>9289887</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2910488</v>
+      </c>
+      <c r="L12" s="12">
+        <v>6220888</v>
+      </c>
+      <c r="M12" s="12">
+        <v>425451</v>
+      </c>
+      <c r="N12" s="12">
+        <v>78337270</v>
+      </c>
+      <c r="O12" s="12">
+        <v>7071790</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>26.915510388635859</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="CW12" s="2"/>
     </row>
     <row r="13" spans="1:267" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:267" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Y14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Z14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" s="5" t="s">
+      <c r="AA14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AB14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC14" s="5" t="s">
+      <c r="AC14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AD14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AE14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF14" s="5" t="s">
+      <c r="AF14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG14" s="5" t="s">
+      <c r="AG14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH14" s="5" t="s">
+      <c r="AH14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" s="5" t="s">
+      <c r="AI14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ14" s="5" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK14" s="5" t="s">
+      <c r="AK14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL14" s="5" t="s">
+      <c r="AL14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM14" s="5" t="s">
+      <c r="AM14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN14" s="5" t="s">
+      <c r="AN14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO14" s="5" t="s">
+      <c r="AO14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP14" s="5" t="s">
+      <c r="AP14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ14" s="5" t="s">
+      <c r="AQ14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR14" s="5" t="s">
+      <c r="AR14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS14" s="5" t="s">
+      <c r="AS14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT14" s="5" t="s">
+      <c r="AT14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU14" s="5" t="s">
+      <c r="AU14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV14" s="5" t="s">
+      <c r="AV14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW14" s="5" t="s">
+      <c r="AW14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX14" s="5" t="s">
+      <c r="AX14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY14" s="5" t="s">
+      <c r="AY14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ14" s="5" t="s">
+      <c r="AZ14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA14" s="5" t="s">
+      <c r="BA14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB14" s="5" t="s">
+      <c r="BB14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC14" s="5" t="s">
+      <c r="BC14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD14" s="5" t="s">
+      <c r="BD14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE14" s="5" t="s">
+      <c r="BE14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF14" s="5" t="s">
+      <c r="BF14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG14" s="5" t="s">
+      <c r="BG14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH14" s="5" t="s">
+      <c r="BH14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI14" s="5" t="s">
+      <c r="BI14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ14" s="5" t="s">
+      <c r="BJ14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK14" s="5" t="s">
+      <c r="BK14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL14" s="5" t="s">
+      <c r="BL14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM14" s="5" t="s">
+      <c r="BM14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN14" s="5" t="s">
+      <c r="BN14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO14" s="5" t="s">
+      <c r="BO14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP14" s="5" t="s">
+      <c r="BP14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ14" s="5" t="s">
+      <c r="BQ14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR14" s="5" t="s">
+      <c r="BR14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS14" s="5" t="s">
+      <c r="BS14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BT14" s="5" t="s">
+      <c r="BT14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BU14" s="5" t="s">
+      <c r="BU14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BV14" s="5" t="s">
+      <c r="BV14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BW14" s="5" t="s">
+      <c r="BW14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BX14" s="5" t="s">
+      <c r="BX14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BY14" s="5" t="s">
+      <c r="BY14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BZ14" s="5" t="s">
+      <c r="BZ14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CA14" s="5" t="s">
+      <c r="CA14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CB14" s="5" t="s">
+      <c r="CB14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CC14" s="5" t="s">
+      <c r="CC14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CD14" s="8" t="s">
+      <c r="CD14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="CE14" s="5" t="s">
+      <c r="CE14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CF14" s="5" t="s">
+      <c r="CF14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CG14" s="5" t="s">
+      <c r="CG14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CH14" s="5" t="s">
+      <c r="CH14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CI14" s="5" t="s">
+      <c r="CI14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CJ14" s="5" t="s">
+      <c r="CJ14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CK14" s="5" t="s">
+      <c r="CK14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CL14" s="5" t="s">
+      <c r="CL14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CM14" s="5" t="s">
+      <c r="CM14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CN14" s="5" t="s">
+      <c r="CN14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CO14" s="5" t="s">
+      <c r="CO14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CP14" s="5" t="s">
+      <c r="CP14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CQ14" s="5" t="s">
+      <c r="CQ14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CR14" s="5" t="s">
+      <c r="CR14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CS14" s="5" t="s">
+      <c r="CS14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CT14" s="5" t="s">
+      <c r="CT14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CU14" s="5" t="s">
+      <c r="CU14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CV14" s="5" t="s">
+      <c r="CV14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CW14" s="5" t="s">
+      <c r="CW14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CX14" s="5" t="s">
+      <c r="CX14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CY14" s="5" t="s">
+      <c r="CY14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CZ14" s="5" t="s">
+      <c r="CZ14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DA14" s="5" t="s">
+      <c r="DA14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DB14" s="5" t="s">
+      <c r="DB14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DC14" s="5" t="s">
+      <c r="DC14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DD14" s="5" t="s">
+      <c r="DD14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DE14" s="8" t="s">
+      <c r="DE14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="DF14" s="8" t="s">
+      <c r="DF14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="DG14" s="8" t="s">
+      <c r="DG14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DH14" s="8" t="s">
+      <c r="DH14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="DI14" s="5" t="s">
+      <c r="DI14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="DJ14" s="5" t="s">
+      <c r="DJ14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="DK14" s="5" t="s">
+      <c r="DK14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="DL14" s="5" t="s">
+      <c r="DL14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="DM14" s="5" t="s">
+      <c r="DM14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="DN14" s="5" t="s">
+      <c r="DN14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="DO14" s="8" t="s">
+      <c r="DO14" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="DP14" s="8" t="s">
+      <c r="DP14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="DQ14" s="5" t="s">
+      <c r="DQ14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="DR14" s="8" t="s">
+      <c r="DR14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="DS14" s="5" t="s">
+      <c r="DS14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="DT14" s="5" t="s">
+      <c r="DT14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="DU14" s="5" t="s">
+      <c r="DU14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="DV14" s="5" t="s">
+      <c r="DV14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="DW14" s="5" t="s">
+      <c r="DW14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="DX14" s="5" t="s">
+      <c r="DX14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="DY14" s="5" t="s">
+      <c r="DY14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="DZ14" s="5" t="s">
+      <c r="DZ14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="EA14" s="5" t="s">
+      <c r="EA14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="EB14" s="5" t="s">
+      <c r="EB14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="EC14" s="5" t="s">
+      <c r="EC14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="ED14" s="5" t="s">
+      <c r="ED14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="EE14" s="5" t="s">
+      <c r="EE14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="EF14" s="5" t="s">
+      <c r="EF14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="EG14" s="5" t="s">
+      <c r="EG14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="EH14" s="5" t="s">
+      <c r="EH14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="EI14" s="5" t="s">
+      <c r="EI14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="EJ14" s="5" t="s">
+      <c r="EJ14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="EK14" s="5" t="s">
+      <c r="EK14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="EL14" s="5" t="s">
+      <c r="EL14" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>1022736</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>1022999</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>1965</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>559</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>561</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>581</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="3">
         <v>565</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="3">
         <v>358577</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="3">
         <v>358578</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="3">
         <v>358867</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <v>358558</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="3">
         <v>4224</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="3">
         <v>4224</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="3">
         <v>4224</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="3">
         <v>4224</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="3">
         <v>1782015</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="3">
         <v>1782038</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="3">
         <v>1782677</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15" s="3">
         <v>1783592</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="3">
         <v>1423462</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE15" s="3">
         <v>1423474</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="3">
         <v>1424145</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AG15" s="3">
         <v>1425087</v>
       </c>
-      <c r="AH15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="5">
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="3">
         <v>4</v>
       </c>
-      <c r="BT15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV15" s="5">
+      <c r="BT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="3">
         <v>1782058</v>
       </c>
-      <c r="BW15" s="5">
+      <c r="BW15" s="3">
         <v>1782081</v>
       </c>
-      <c r="BX15" s="5">
+      <c r="BX15" s="3">
         <v>1782677</v>
       </c>
-      <c r="BY15" s="5">
+      <c r="BY15" s="3">
         <v>1783592</v>
       </c>
-      <c r="BZ15" s="5">
+      <c r="BZ15" s="3">
         <v>4239</v>
       </c>
-      <c r="CA15" s="5">
+      <c r="CA15" s="3">
         <v>4238</v>
       </c>
-      <c r="CB15" s="5">
+      <c r="CB15" s="3">
         <v>4245</v>
       </c>
-      <c r="CC15" s="5">
+      <c r="CC15" s="3">
         <v>4251</v>
       </c>
-      <c r="CD15" s="8">
+      <c r="CD15" s="6">
         <v>12135264</v>
       </c>
-      <c r="CE15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CG15" s="5">
+      <c r="CE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="3">
         <v>18209832</v>
       </c>
-      <c r="CH15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CI15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CK15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CL15" s="5">
+      <c r="CH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="3">
         <v>16896</v>
       </c>
-      <c r="CM15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CN15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CO15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CP15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CQ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CT15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CW15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY15" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DA15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DB15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DC15" s="5">
+      <c r="CM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC15" s="3">
         <v>16896</v>
       </c>
-      <c r="DD15" s="5">
+      <c r="DD15" s="3">
         <v>540672</v>
       </c>
-      <c r="DE15" s="8">
+      <c r="DE15" s="6">
         <v>3729324</v>
       </c>
-      <c r="DF15" s="8">
+      <c r="DF15" s="6">
         <v>7528197</v>
       </c>
-      <c r="DG15" s="8">
+      <c r="DG15" s="6">
         <v>809324</v>
       </c>
-      <c r="DH15" s="8">
+      <c r="DH15" s="6">
         <v>99657080</v>
       </c>
-      <c r="DI15" s="5">
+      <c r="DI15" s="3">
         <v>185856</v>
       </c>
-      <c r="DJ15" s="5">
+      <c r="DJ15" s="3">
         <v>101376</v>
       </c>
-      <c r="DK15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DM15" s="5">
+      <c r="DK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM15" s="3">
         <v>611298</v>
       </c>
-      <c r="DN15" s="5">
+      <c r="DN15" s="3">
         <v>16896</v>
       </c>
-      <c r="DO15" s="8">
+      <c r="DO15" s="6">
         <v>11304019</v>
       </c>
-      <c r="DP15" s="8">
+      <c r="DP15" s="6">
         <v>632415614</v>
       </c>
-      <c r="DQ15" s="5">
+      <c r="DQ15" s="3">
         <v>2112</v>
       </c>
-      <c r="DR15" s="8">
+      <c r="DR15" s="6">
         <v>96420104</v>
       </c>
-      <c r="DS15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DT15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DU15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DV15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DW15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DX15" s="5">
-        <v>0</v>
-      </c>
-      <c r="DY15" s="5">
+      <c r="DS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="3">
         <v>5052929</v>
       </c>
-      <c r="DZ15" s="5">
+      <c r="DZ15" s="3">
         <v>16896</v>
       </c>
-      <c r="EA15" s="5">
-        <v>0</v>
-      </c>
-      <c r="EB15" s="5">
-        <v>0</v>
-      </c>
-      <c r="EC15" s="5">
+      <c r="EA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC15" s="3">
         <v>4441631</v>
       </c>
-      <c r="ED15" s="5">
-        <v>0</v>
-      </c>
-      <c r="EE15" s="5">
-        <v>0</v>
-      </c>
-      <c r="EF15" s="5">
-        <v>0</v>
-      </c>
-      <c r="EG15" s="5">
+      <c r="ED15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG15" s="3">
         <v>185856</v>
       </c>
-      <c r="EH15" s="5">
+      <c r="EH15" s="3">
         <v>101376</v>
       </c>
-      <c r="EI15" s="5">
+      <c r="EI15" s="3">
         <v>5470386</v>
       </c>
-      <c r="EJ15" s="5">
+      <c r="EJ15" s="3">
         <v>16896</v>
       </c>
-      <c r="EK15" s="5">
-        <v>0</v>
-      </c>
-      <c r="EL15" s="5">
-        <v>0</v>
-      </c>
-      <c r="EP15" s="7"/>
-      <c r="EQ15" s="7"/>
-      <c r="ER15" s="7"/>
-      <c r="EW15" s="7"/>
-      <c r="FC15" s="7"/>
-      <c r="FJ15" s="7"/>
-      <c r="FK15" s="7"/>
-      <c r="FL15" s="7"/>
-      <c r="FM15" s="7"/>
-      <c r="FN15" s="7"/>
-      <c r="FQ15" s="7"/>
-      <c r="FR15" s="7"/>
-      <c r="FV15" s="7"/>
-      <c r="GX15" s="7"/>
-      <c r="HL15" s="7"/>
-      <c r="HM15" s="7"/>
-      <c r="HN15" s="7"/>
-      <c r="HO15" s="7"/>
-      <c r="HP15" s="7"/>
-      <c r="HQ15" s="7"/>
-      <c r="IF15" s="7"/>
-      <c r="IH15" s="7"/>
-      <c r="JB15" s="7"/>
-      <c r="JC15" s="7"/>
-      <c r="JD15" s="7"/>
-      <c r="JE15" s="7"/>
-      <c r="JF15" s="7"/>
-      <c r="JG15" s="7"/>
+      <c r="EK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP15" s="5"/>
+      <c r="EQ15" s="5"/>
+      <c r="ER15" s="5"/>
+      <c r="EW15" s="5"/>
+      <c r="FC15" s="5"/>
+      <c r="FJ15" s="5"/>
+      <c r="FK15" s="5"/>
+      <c r="FL15" s="5"/>
+      <c r="FM15" s="5"/>
+      <c r="FN15" s="5"/>
+      <c r="FQ15" s="5"/>
+      <c r="FR15" s="5"/>
+      <c r="FV15" s="5"/>
+      <c r="GX15" s="5"/>
+      <c r="HL15" s="5"/>
+      <c r="HM15" s="5"/>
+      <c r="HN15" s="5"/>
+      <c r="HO15" s="5"/>
+      <c r="HP15" s="5"/>
+      <c r="HQ15" s="5"/>
+      <c r="IF15" s="5"/>
+      <c r="IH15" s="5"/>
+      <c r="JB15" s="5"/>
+      <c r="JC15" s="5"/>
+      <c r="JD15" s="5"/>
+      <c r="JE15" s="5"/>
+      <c r="JF15" s="5"/>
+      <c r="JG15" s="5"/>
     </row>
     <row r="16" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>938498</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>938515</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <v>1727</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <v>1784</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>512</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>521</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <v>521</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="3">
         <v>518</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="3">
         <v>326713</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="3">
         <v>326765</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="3">
         <v>326699</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="3">
         <v>326787</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="3">
         <v>4032</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="3">
         <v>4032</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="3">
         <v>4032</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="3">
         <v>4032</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="3">
         <v>1622736</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="3">
         <v>1622253</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="3">
         <v>1622172</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" s="3">
         <v>1624016</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AD16" s="3">
         <v>1296039</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AE16" s="3">
         <v>1295556</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" s="3">
         <v>1295475</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AG16" s="3">
         <v>1297327</v>
       </c>
-      <c r="AH16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR16" s="5">
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="3">
         <v>4</v>
       </c>
-      <c r="BS16" s="5">
-        <v>0</v>
-      </c>
-      <c r="BT16" s="5">
+      <c r="BS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="3">
         <v>4</v>
       </c>
-      <c r="BU16" s="5">
+      <c r="BU16" s="3">
         <v>5</v>
       </c>
-      <c r="BV16" s="5">
+      <c r="BV16" s="3">
         <v>1622776</v>
       </c>
-      <c r="BW16" s="5">
+      <c r="BW16" s="3">
         <v>1622293</v>
       </c>
-      <c r="BX16" s="5">
+      <c r="BX16" s="3">
         <v>1622232</v>
       </c>
-      <c r="BY16" s="5">
+      <c r="BY16" s="3">
         <v>1624016</v>
       </c>
-      <c r="BZ16" s="5">
+      <c r="BZ16" s="3">
         <v>4043</v>
       </c>
-      <c r="CA16" s="5">
+      <c r="CA16" s="3">
         <v>4042</v>
       </c>
-      <c r="CB16" s="5">
+      <c r="CB16" s="3">
         <v>4048</v>
       </c>
-      <c r="CC16" s="5">
+      <c r="CC16" s="3">
         <v>4048</v>
       </c>
-      <c r="CD16" s="8">
+      <c r="CD16" s="6">
         <v>10842908</v>
       </c>
-      <c r="CE16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CF16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CG16" s="5">
+      <c r="CE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="3">
         <v>15624885</v>
       </c>
-      <c r="CH16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CI16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CJ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CK16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CL16" s="5">
+      <c r="CH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="3">
         <v>16128</v>
       </c>
-      <c r="CM16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CN16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CO16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CP16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CQ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CT16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CU16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CW16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY16" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DA16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DB16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DC16" s="5">
+      <c r="CM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC16" s="3">
         <v>16128</v>
       </c>
-      <c r="DD16" s="5">
+      <c r="DD16" s="3">
         <v>516096</v>
       </c>
-      <c r="DE16" s="8">
+      <c r="DE16" s="6">
         <v>3539172</v>
       </c>
-      <c r="DF16" s="8">
+      <c r="DF16" s="6">
         <v>6161679</v>
       </c>
-      <c r="DG16" s="8">
+      <c r="DG16" s="6">
         <v>1070864</v>
       </c>
-      <c r="DH16" s="8">
+      <c r="DH16" s="6">
         <v>92886508</v>
       </c>
-      <c r="DI16" s="5">
+      <c r="DI16" s="3">
         <v>209664</v>
       </c>
-      <c r="DJ16" s="5">
+      <c r="DJ16" s="3">
         <v>102816</v>
       </c>
-      <c r="DK16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DM16" s="5">
+      <c r="DK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM16" s="3">
         <v>551682</v>
       </c>
-      <c r="DN16" s="5">
+      <c r="DN16" s="3">
         <v>16128</v>
       </c>
-      <c r="DO16" s="8">
+      <c r="DO16" s="6">
         <v>10239479</v>
       </c>
-      <c r="DP16" s="8">
+      <c r="DP16" s="6">
         <v>588010422</v>
       </c>
-      <c r="DQ16" s="5">
+      <c r="DQ16" s="3">
         <v>2016</v>
       </c>
-      <c r="DR16" s="8">
+      <c r="DR16" s="6">
         <v>88957382</v>
       </c>
-      <c r="DS16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DT16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DU16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DV16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DW16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DX16" s="5">
-        <v>0</v>
-      </c>
-      <c r="DY16" s="5">
+      <c r="DS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX16" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY16" s="3">
         <v>4597734</v>
       </c>
-      <c r="DZ16" s="5">
+      <c r="DZ16" s="3">
         <v>16128</v>
       </c>
-      <c r="EA16" s="5">
-        <v>0</v>
-      </c>
-      <c r="EB16" s="5">
+      <c r="EA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB16" s="3">
         <v>4032</v>
       </c>
-      <c r="EC16" s="5">
+      <c r="EC16" s="3">
         <v>4046052</v>
       </c>
-      <c r="ED16" s="5">
-        <v>0</v>
-      </c>
-      <c r="EE16" s="5">
-        <v>0</v>
-      </c>
-      <c r="EF16" s="5">
-        <v>0</v>
-      </c>
-      <c r="EG16" s="5">
+      <c r="ED16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG16" s="3">
         <v>209664</v>
       </c>
-      <c r="EH16" s="5">
+      <c r="EH16" s="3">
         <v>106848</v>
       </c>
-      <c r="EI16" s="5">
+      <c r="EI16" s="3">
         <v>4820853</v>
       </c>
-      <c r="EJ16" s="5">
+      <c r="EJ16" s="3">
         <v>16128</v>
       </c>
-      <c r="EK16" s="5">
-        <v>0</v>
-      </c>
-      <c r="EL16" s="5">
+      <c r="EK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>932773</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>933190</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>1839</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="3">
         <v>1868</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="3">
         <v>527</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>524</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="3">
         <v>546</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="3">
         <v>524</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="3">
         <v>326993</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="3">
         <v>326907</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="3">
         <v>327032</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="3">
         <v>326927</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="3">
         <v>4032</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="3">
         <v>4032</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="3">
         <v>4032</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="3">
         <v>4032</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="3">
         <v>1618154</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="3">
         <v>1619158</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="3">
         <v>1619009</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AC17" s="3">
         <v>1616712</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AD17" s="3">
         <v>1291638</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AE17" s="3">
         <v>1292711</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" s="3">
         <v>1292423</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AG17" s="3">
         <v>1290243</v>
       </c>
-      <c r="AH17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BS17" s="5">
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="3">
         <v>4</v>
       </c>
-      <c r="BT17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU17" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV17" s="5">
+      <c r="BT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="3">
         <v>1620977</v>
       </c>
-      <c r="BW17" s="5">
+      <c r="BW17" s="3">
         <v>1621186</v>
       </c>
-      <c r="BX17" s="5">
+      <c r="BX17" s="3">
         <v>1621032</v>
       </c>
-      <c r="BY17" s="5">
+      <c r="BY17" s="3">
         <v>1618688</v>
       </c>
-      <c r="BZ17" s="5">
+      <c r="BZ17" s="3">
         <v>4045</v>
       </c>
-      <c r="CA17" s="5">
+      <c r="CA17" s="3">
         <v>4055</v>
       </c>
-      <c r="CB17" s="5">
+      <c r="CB17" s="3">
         <v>4054</v>
       </c>
-      <c r="CC17" s="5">
+      <c r="CC17" s="3">
         <v>4057</v>
       </c>
-      <c r="CD17" s="8">
+      <c r="CD17" s="6">
         <v>10812959</v>
       </c>
-      <c r="CE17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CF17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CG17" s="5">
+      <c r="CE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="3">
         <v>15606741</v>
       </c>
-      <c r="CH17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CI17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CJ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CK17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CL17" s="5">
+      <c r="CH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="3">
         <v>16128</v>
       </c>
-      <c r="CM17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CO17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CP17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CQ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CT17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CU17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CW17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY17" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DA17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DB17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DC17" s="5">
+      <c r="CM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC17" s="3">
         <v>16128</v>
       </c>
-      <c r="DD17" s="5">
+      <c r="DD17" s="3">
         <v>516096</v>
       </c>
-      <c r="DE17" s="8">
+      <c r="DE17" s="6">
         <v>3476298</v>
       </c>
-      <c r="DF17" s="8">
+      <c r="DF17" s="6">
         <v>6746647</v>
       </c>
-      <c r="DG17" s="8">
+      <c r="DG17" s="6">
         <v>863843</v>
       </c>
-      <c r="DH17" s="8">
+      <c r="DH17" s="6">
         <v>91632448</v>
       </c>
-      <c r="DI17" s="5">
+      <c r="DI17" s="3">
         <v>177408</v>
       </c>
-      <c r="DJ17" s="5">
+      <c r="DJ17" s="3">
         <v>96768</v>
       </c>
-      <c r="DK17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DM17" s="5">
+      <c r="DK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM17" s="3">
         <v>533538</v>
       </c>
-      <c r="DN17" s="5">
+      <c r="DN17" s="3">
         <v>16128</v>
       </c>
-      <c r="DO17" s="8">
+      <c r="DO17" s="6">
         <v>10227964</v>
       </c>
-      <c r="DP17" s="8">
+      <c r="DP17" s="6">
         <v>581991430</v>
       </c>
-      <c r="DQ17" s="5">
+      <c r="DQ17" s="3">
         <v>2016</v>
       </c>
-      <c r="DR17" s="8">
+      <c r="DR17" s="6">
         <v>88643748</v>
       </c>
-      <c r="DS17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DT17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DU17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DV17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DW17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DX17" s="5">
-        <v>0</v>
-      </c>
-      <c r="DY17" s="5">
+      <c r="DS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY17" s="3">
         <v>4579590</v>
       </c>
-      <c r="DZ17" s="5">
+      <c r="DZ17" s="3">
         <v>16128</v>
       </c>
-      <c r="EA17" s="5">
-        <v>0</v>
-      </c>
-      <c r="EB17" s="5">
-        <v>0</v>
-      </c>
-      <c r="EC17" s="5">
+      <c r="EA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC17" s="3">
         <v>4046052</v>
       </c>
-      <c r="ED17" s="5">
-        <v>0</v>
-      </c>
-      <c r="EE17" s="5">
-        <v>0</v>
-      </c>
-      <c r="EF17" s="5">
-        <v>0</v>
-      </c>
-      <c r="EG17" s="5">
+      <c r="ED17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG17" s="3">
         <v>177408</v>
       </c>
-      <c r="EH17" s="5">
+      <c r="EH17" s="3">
         <v>96768</v>
       </c>
-      <c r="EI17" s="5">
+      <c r="EI17" s="3">
         <v>4959212</v>
       </c>
-      <c r="EJ17" s="5">
+      <c r="EJ17" s="3">
         <v>16128</v>
       </c>
-      <c r="EK17" s="5">
-        <v>0</v>
-      </c>
-      <c r="EL17" s="5">
+      <c r="EK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>64512</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>64512</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>64512</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>64512</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>2456</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>2473</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>2464</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>2469</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <v>939924</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>939462</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <v>1825</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="3">
         <v>1793</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>529</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>535</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="3">
         <v>527</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="3">
         <v>547</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="3">
         <v>327023</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="3">
         <v>327798</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="3">
         <v>327011</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>326941</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="3">
         <v>4032</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="3">
         <v>4032</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="3">
         <v>4032</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="3">
         <v>4032</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="3">
         <v>1618200</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="3">
         <v>1617716</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="3">
         <v>1617636</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" s="3">
         <v>1619481</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" s="3">
         <v>1291694</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="3">
         <v>1291202</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="3">
         <v>1291190</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" s="3">
         <v>1293018</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AH18" s="3">
         <v>2472</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AI18" s="3">
         <v>2463</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="3">
         <v>2465</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AK18" s="3">
         <v>2449</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AL18" s="3">
         <v>1947</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AM18" s="3">
         <v>1952</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AN18" s="3">
         <v>1959</v>
       </c>
-      <c r="AO18" s="5">
+      <c r="AO18" s="3">
         <v>1948</v>
       </c>
-      <c r="AP18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR18" s="5">
-        <v>0</v>
-      </c>
-      <c r="BS18" s="5">
+      <c r="AP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="3">
         <v>4</v>
       </c>
-      <c r="BT18" s="5">
+      <c r="BT18" s="3">
         <v>5</v>
       </c>
-      <c r="BU18" s="5">
+      <c r="BU18" s="3">
         <v>1</v>
       </c>
-      <c r="BV18" s="5">
+      <c r="BV18" s="3">
         <v>1620777</v>
       </c>
-      <c r="BW18" s="5">
+      <c r="BW18" s="3">
         <v>1620215</v>
       </c>
-      <c r="BX18" s="5">
+      <c r="BX18" s="3">
         <v>1620106</v>
       </c>
-      <c r="BY18" s="5">
+      <c r="BY18" s="3">
         <v>1621946</v>
       </c>
-      <c r="BZ18" s="5">
+      <c r="BZ18" s="3">
         <v>4057</v>
       </c>
-      <c r="CA18" s="5">
+      <c r="CA18" s="3">
         <v>4047</v>
       </c>
-      <c r="CB18" s="5">
+      <c r="CB18" s="3">
         <v>4056</v>
       </c>
-      <c r="CC18" s="5">
+      <c r="CC18" s="3">
         <v>4053</v>
       </c>
-      <c r="CD18" s="8">
+      <c r="CD18" s="6">
         <v>10828202</v>
       </c>
-      <c r="CE18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CF18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CG18" s="5">
+      <c r="CE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="3">
         <v>15606741</v>
       </c>
-      <c r="CH18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CI18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CJ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CK18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CL18" s="5">
+      <c r="CH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL18" s="3">
         <v>16128</v>
       </c>
-      <c r="CM18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CN18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CO18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CP18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CQ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CT18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CU18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CW18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY18" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DA18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DB18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DC18" s="5">
+      <c r="CM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC18" s="3">
         <v>16128</v>
       </c>
-      <c r="DD18" s="5">
+      <c r="DD18" s="3">
         <v>516096</v>
       </c>
-      <c r="DE18" s="8">
+      <c r="DE18" s="6">
         <v>3492804</v>
       </c>
-      <c r="DF18" s="8">
+      <c r="DF18" s="6">
         <v>6441535</v>
       </c>
-      <c r="DG18" s="8">
+      <c r="DG18" s="6">
         <v>944540</v>
       </c>
-      <c r="DH18" s="8">
+      <c r="DH18" s="6">
         <v>91402732</v>
       </c>
-      <c r="DI18" s="5">
+      <c r="DI18" s="3">
         <v>177408</v>
       </c>
-      <c r="DJ18" s="5">
+      <c r="DJ18" s="3">
         <v>96768</v>
       </c>
-      <c r="DK18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DM18" s="5">
+      <c r="DK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM18" s="3">
         <v>533538</v>
       </c>
-      <c r="DN18" s="5">
+      <c r="DN18" s="3">
         <v>16128</v>
       </c>
-      <c r="DO18" s="8">
+      <c r="DO18" s="6">
         <v>10167356</v>
       </c>
-      <c r="DP18" s="8">
+      <c r="DP18" s="6">
         <v>578674018</v>
       </c>
-      <c r="DQ18" s="5">
+      <c r="DQ18" s="3">
         <v>2016</v>
       </c>
-      <c r="DR18" s="8">
+      <c r="DR18" s="6">
         <v>88413070</v>
       </c>
-      <c r="DS18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DT18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DU18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DV18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DW18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DX18" s="5">
-        <v>0</v>
-      </c>
-      <c r="DY18" s="5">
+      <c r="DS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY18" s="3">
         <v>4579590</v>
       </c>
-      <c r="DZ18" s="5">
+      <c r="DZ18" s="3">
         <v>16128</v>
       </c>
-      <c r="EA18" s="5">
-        <v>0</v>
-      </c>
-      <c r="EB18" s="5">
-        <v>0</v>
-      </c>
-      <c r="EC18" s="5">
+      <c r="EA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EC18" s="3">
         <v>4046052</v>
       </c>
-      <c r="ED18" s="5">
-        <v>0</v>
-      </c>
-      <c r="EE18" s="5">
-        <v>0</v>
-      </c>
-      <c r="EF18" s="5">
-        <v>0</v>
-      </c>
-      <c r="EG18" s="5">
+      <c r="ED18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG18" s="3">
         <v>177408</v>
       </c>
-      <c r="EH18" s="5">
+      <c r="EH18" s="3">
         <v>96768</v>
       </c>
-      <c r="EI18" s="5">
+      <c r="EI18" s="3">
         <v>4870137</v>
       </c>
-      <c r="EJ18" s="5">
+      <c r="EJ18" s="3">
         <v>16128</v>
       </c>
-      <c r="EK18" s="5">
-        <v>0</v>
-      </c>
-      <c r="EL18" s="5">
+      <c r="EK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19">
         <v>1235165</v>
@@ -4550,7 +4718,7 @@
       <c r="CC19">
         <v>4038</v>
       </c>
-      <c r="CD19" s="9">
+      <c r="CD19" s="7">
         <v>5544355</v>
       </c>
       <c r="CE19">
@@ -4631,16 +4799,16 @@
       <c r="DD19">
         <v>516096</v>
       </c>
-      <c r="DE19" s="9">
+      <c r="DE19" s="7">
         <v>3072918</v>
       </c>
-      <c r="DF19" s="9">
+      <c r="DF19" s="7">
         <v>2478135</v>
       </c>
-      <c r="DG19" s="9">
+      <c r="DG19" s="7">
         <v>727125</v>
       </c>
-      <c r="DH19" s="9">
+      <c r="DH19" s="7">
         <v>80939542</v>
       </c>
       <c r="DI19">
@@ -4661,16 +4829,16 @@
       <c r="DN19">
         <v>16128</v>
       </c>
-      <c r="DO19" s="9">
+      <c r="DO19" s="7">
         <v>4861121</v>
       </c>
-      <c r="DP19" s="9">
+      <c r="DP19" s="7">
         <v>273151558</v>
       </c>
       <c r="DQ19">
         <v>2016</v>
       </c>
-      <c r="DR19" s="9">
+      <c r="DR19" s="7">
         <v>77017220</v>
       </c>
       <c r="DS19">
@@ -4736,7 +4904,7 @@
     </row>
     <row r="20" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4978,7 +5146,7 @@
       <c r="CC20">
         <v>4056</v>
       </c>
-      <c r="CD20" s="9">
+      <c r="CD20" s="7">
         <v>10920296</v>
       </c>
       <c r="CE20">
@@ -5059,16 +5227,16 @@
       <c r="DD20">
         <v>516096</v>
       </c>
-      <c r="DE20" s="9">
+      <c r="DE20" s="7">
         <v>3492804</v>
       </c>
-      <c r="DF20" s="9">
+      <c r="DF20" s="7">
         <v>6927078</v>
       </c>
-      <c r="DG20" s="9">
+      <c r="DG20" s="7">
         <v>759227</v>
       </c>
-      <c r="DH20" s="9">
+      <c r="DH20" s="7">
         <v>91902700</v>
       </c>
       <c r="DI20">
@@ -5089,16 +5257,16 @@
       <c r="DN20">
         <v>16128</v>
       </c>
-      <c r="DO20" s="9">
+      <c r="DO20" s="7">
         <v>10322704</v>
       </c>
-      <c r="DP20" s="9">
+      <c r="DP20" s="7">
         <v>589563506</v>
       </c>
       <c r="DQ20">
         <v>2016</v>
       </c>
-      <c r="DR20" s="9">
+      <c r="DR20" s="7">
         <v>88913040</v>
       </c>
       <c r="DS20">
@@ -5164,7 +5332,7 @@
     </row>
     <row r="21" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B21">
         <v>64512</v>
@@ -5406,7 +5574,7 @@
       <c r="CC21">
         <v>4035</v>
       </c>
-      <c r="CD21" s="9">
+      <c r="CD21" s="7">
         <v>43169960</v>
       </c>
       <c r="CE21">
@@ -5487,16 +5655,16 @@
       <c r="DD21">
         <v>516096</v>
       </c>
-      <c r="DE21" s="9">
+      <c r="DE21" s="7">
         <v>3283080</v>
       </c>
-      <c r="DF21" s="9">
+      <c r="DF21" s="7">
         <v>42899856</v>
       </c>
-      <c r="DG21" s="9">
+      <c r="DG21" s="7">
         <v>1129644</v>
       </c>
-      <c r="DH21" s="9">
+      <c r="DH21" s="7">
         <v>387283284</v>
       </c>
       <c r="DI21">
@@ -5517,16 +5685,16 @@
       <c r="DN21">
         <v>16128</v>
       </c>
-      <c r="DO21" s="9">
+      <c r="DO21" s="7">
         <v>41046791</v>
       </c>
-      <c r="DP21" s="9">
+      <c r="DP21" s="7">
         <v>1979567416</v>
       </c>
       <c r="DQ21">
         <v>2016</v>
       </c>
-      <c r="DR21" s="9">
+      <c r="DR21" s="7">
         <v>380903226</v>
       </c>
       <c r="DS21">
@@ -5592,7 +5760,7 @@
     </row>
     <row r="22" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B22">
         <v>1354804</v>
@@ -5834,7 +6002,7 @@
       <c r="CC22">
         <v>4228</v>
       </c>
-      <c r="CD22" s="9">
+      <c r="CD22" s="7">
         <v>5920853</v>
       </c>
       <c r="CE22">
@@ -5915,16 +6083,16 @@
       <c r="DD22">
         <v>540672</v>
       </c>
-      <c r="DE22" s="9">
+      <c r="DE22" s="7">
         <v>3301863</v>
       </c>
-      <c r="DF22" s="9">
+      <c r="DF22" s="7">
         <v>2441918</v>
       </c>
-      <c r="DG22" s="9">
+      <c r="DG22" s="7">
         <v>808848</v>
       </c>
-      <c r="DH22" s="9">
+      <c r="DH22" s="7">
         <v>86290312</v>
       </c>
       <c r="DI22">
@@ -5945,16 +6113,16 @@
       <c r="DN22">
         <v>16896</v>
       </c>
-      <c r="DO22" s="9">
+      <c r="DO22" s="7">
         <v>5446743</v>
       </c>
-      <c r="DP22" s="9">
+      <c r="DP22" s="7">
         <v>281494854</v>
       </c>
       <c r="DQ22">
         <v>2112</v>
       </c>
-      <c r="DR22" s="9">
+      <c r="DR22" s="7">
         <v>82596256</v>
       </c>
       <c r="DS22">
@@ -6020,7 +6188,7 @@
     </row>
     <row r="23" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23">
         <v>1235005</v>
@@ -6262,7 +6430,7 @@
       <c r="CC23">
         <v>4037</v>
       </c>
-      <c r="CD23" s="9">
+      <c r="CD23" s="7">
         <v>5454729</v>
       </c>
       <c r="CE23">
@@ -6343,16 +6511,16 @@
       <c r="DD23">
         <v>516096</v>
       </c>
-      <c r="DE23" s="9">
+      <c r="DE23" s="7">
         <v>3072918</v>
       </c>
-      <c r="DF23" s="9">
+      <c r="DF23" s="7">
         <v>2488031</v>
       </c>
-      <c r="DG23" s="9">
+      <c r="DG23" s="7">
         <v>728780</v>
       </c>
-      <c r="DH23" s="9">
+      <c r="DH23" s="7">
         <v>80939548</v>
       </c>
       <c r="DI23">
@@ -6373,16 +6541,16 @@
       <c r="DN23">
         <v>16128</v>
       </c>
-      <c r="DO23" s="9">
+      <c r="DO23" s="7">
         <v>4765161</v>
       </c>
-      <c r="DP23" s="9">
+      <c r="DP23" s="7">
         <v>266787170</v>
       </c>
       <c r="DQ23">
         <v>2016</v>
       </c>
-      <c r="DR23" s="9">
+      <c r="DR23" s="7">
         <v>77017212</v>
       </c>
       <c r="DS23">
@@ -6448,7 +6616,7 @@
     </row>
     <row r="24" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B24">
         <v>897310</v>
@@ -6690,7 +6858,7 @@
       <c r="CC24">
         <v>4038</v>
       </c>
-      <c r="CD24" s="9">
+      <c r="CD24" s="7">
         <v>9289887</v>
       </c>
       <c r="CE24">
@@ -6771,16 +6939,16 @@
       <c r="DD24">
         <v>516096</v>
       </c>
-      <c r="DE24" s="9">
+      <c r="DE24" s="7">
         <v>2910488</v>
       </c>
-      <c r="DF24" s="9">
+      <c r="DF24" s="7">
         <v>6220888</v>
       </c>
-      <c r="DG24" s="9">
+      <c r="DG24" s="7">
         <v>425451</v>
       </c>
-      <c r="DH24" s="9">
+      <c r="DH24" s="7">
         <v>78337270</v>
       </c>
       <c r="DI24">
@@ -6801,16 +6969,16 @@
       <c r="DN24">
         <v>16128</v>
       </c>
-      <c r="DO24" s="9">
+      <c r="DO24" s="7">
         <v>8945063</v>
       </c>
-      <c r="DP24" s="9">
+      <c r="DP24" s="7">
         <v>524039972</v>
       </c>
       <c r="DQ24">
         <v>2016</v>
       </c>
-      <c r="DR24" s="9">
+      <c r="DR24" s="7">
         <v>74771234</v>
       </c>
       <c r="DS24">
@@ -6874,1894 +7042,1894 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:142" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:142" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Y28" s="5" t="s">
+      <c r="Y28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Z28" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AA28" s="5" t="s">
+      <c r="AA28" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AB28" s="5" t="s">
+      <c r="AB28" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AC28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AE28" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AF28" s="5" t="s">
+      <c r="AF28" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AG28" s="5" t="s">
+      <c r="AG28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AH28" s="5" t="s">
+      <c r="AH28" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AI28" s="5" t="s">
+      <c r="AI28" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AJ28" s="5" t="s">
+      <c r="AJ28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AK28" s="5" t="s">
+      <c r="AK28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AL28" s="5" t="s">
+      <c r="AL28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AM28" s="5" t="s">
+      <c r="AM28" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AN28" s="5" t="s">
+      <c r="AN28" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AO28" s="5" t="s">
+      <c r="AO28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AP28" s="5" t="s">
+      <c r="AP28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AQ28" s="5" t="s">
+      <c r="AQ28" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AR28" s="5" t="s">
+      <c r="AR28" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AS28" s="5" t="s">
+      <c r="AS28" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AT28" s="5" t="s">
+      <c r="AT28" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AU28" s="5" t="s">
+      <c r="AU28" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AV28" s="5" t="s">
+      <c r="AV28" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AW28" s="5" t="s">
+      <c r="AW28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AX28" s="5" t="s">
+      <c r="AX28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AY28" s="5" t="s">
+      <c r="AY28" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AZ28" s="5" t="s">
+      <c r="AZ28" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="BA28" s="5" t="s">
+      <c r="BA28" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BB28" s="5" t="s">
+      <c r="BB28" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="BC28" s="5" t="s">
+      <c r="BC28" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="BD28" s="5" t="s">
+      <c r="BD28" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BE28" s="5" t="s">
+      <c r="BE28" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="BF28" s="5" t="s">
+      <c r="BF28" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BG28" s="5" t="s">
+      <c r="BG28" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="BH28" s="5" t="s">
+      <c r="BH28" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="BI28" s="5" t="s">
+      <c r="BI28" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="BJ28" s="5" t="s">
+      <c r="BJ28" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BK28" s="5" t="s">
+      <c r="BK28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="BL28" s="5" t="s">
+      <c r="BL28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="BM28" s="5" t="s">
+      <c r="BM28" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BN28" s="5" t="s">
+      <c r="BN28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BO28" s="5" t="s">
+      <c r="BO28" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="BP28" s="5" t="s">
+      <c r="BP28" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="BQ28" s="5" t="s">
+      <c r="BQ28" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="BR28" s="5" t="s">
+      <c r="BR28" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="BS28" s="5" t="s">
+      <c r="BS28" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BT28" s="5" t="s">
+      <c r="BT28" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="BU28" s="5" t="s">
+      <c r="BU28" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="BV28" s="5" t="s">
+      <c r="BV28" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BW28" s="5" t="s">
+      <c r="BW28" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="BX28" s="5" t="s">
+      <c r="BX28" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="BY28" s="5" t="s">
+      <c r="BY28" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="BZ28" s="5" t="s">
+      <c r="BZ28" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="CA28" s="5" t="s">
+      <c r="CA28" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="CB28" s="5" t="s">
+      <c r="CB28" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="CC28" s="5" t="s">
+      <c r="CC28" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="CD28" s="5" t="s">
+      <c r="CD28" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="CE28" s="5" t="s">
+      <c r="CE28" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="CF28" s="5" t="s">
+      <c r="CF28" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="CG28" s="5" t="s">
+      <c r="CG28" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CH28" s="5" t="s">
+      <c r="CH28" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="CI28" s="5" t="s">
+      <c r="CI28" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="CJ28" s="5" t="s">
+      <c r="CJ28" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="CK28" s="5" t="s">
+      <c r="CK28" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="CL28" s="5" t="s">
+      <c r="CL28" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="CM28" s="5" t="s">
+      <c r="CM28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="CN28" s="5" t="s">
+      <c r="CN28" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="CO28" s="5" t="s">
+      <c r="CO28" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="CP28" s="5" t="s">
+      <c r="CP28" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="CQ28" s="5" t="s">
+      <c r="CQ28" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="CR28" s="5" t="s">
+      <c r="CR28" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="CS28" s="5" t="s">
+      <c r="CS28" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="CT28" s="5" t="s">
+      <c r="CT28" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="CU28" s="5" t="s">
+      <c r="CU28" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="CV28" s="5" t="s">
+      <c r="CV28" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="CW28" s="5" t="s">
+      <c r="CW28" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="CX28" s="5" t="s">
+      <c r="CX28" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="CY28" s="5" t="s">
+      <c r="CY28" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="CZ28" s="5" t="s">
+      <c r="CZ28" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="DA28" s="5" t="s">
+      <c r="DA28" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="DB28" s="5" t="s">
+      <c r="DB28" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="DC28" s="5" t="s">
+      <c r="DC28" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="DD28" s="5" t="s">
+      <c r="DD28" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="DE28" s="5" t="s">
+      <c r="DE28" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="DF28" s="5" t="s">
+      <c r="DF28" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="DG28" s="5" t="s">
+      <c r="DG28" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="DH28" s="5" t="s">
+      <c r="DH28" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="DI28" s="5" t="s">
+      <c r="DI28" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="DJ28" s="5" t="s">
+      <c r="DJ28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="DK28" s="5" t="s">
+      <c r="DK28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="DL28" s="5" t="s">
+      <c r="DL28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="DM28" s="5" t="s">
+      <c r="DM28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="DN28" s="5" t="s">
+      <c r="DN28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="DO28" s="5" t="s">
+      <c r="DO28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="DP28" s="5" t="s">
+      <c r="DP28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="DQ28" s="5" t="s">
+      <c r="DQ28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="DR28" s="5" t="s">
+      <c r="DR28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="DS28" s="5" t="s">
+      <c r="DS28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="DT28" s="5" t="s">
+      <c r="DT28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="DU28" s="5" t="s">
+      <c r="DU28" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:142" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="7">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
         <v>0.93206122000000002</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>0.32971499999999998</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>0.87363800000000003</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="5">
         <v>0.93206122000000002</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="3">
         <v>0.32971499999999998</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="3">
         <v>1.452682</v>
       </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1.1910019999999999</v>
       </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="5" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="U29" s="5">
-        <v>0</v>
-      </c>
-      <c r="V29" s="7">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
         <v>0.11580882000000001</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="5">
         <v>0.31923228999999997</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="5">
         <v>0.79886546000000003</v>
       </c>
-      <c r="Z29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="5" t="s">
+      <c r="Z29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AB29" s="5" t="s">
+      <c r="AB29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AC29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="7">
+      <c r="AC29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="5">
         <v>0.83507995999999995</v>
       </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AE29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AF29" s="3">
         <v>0.80868200000000001</v>
       </c>
-      <c r="AG29" s="5">
+      <c r="AG29" s="3">
         <v>220.72230099999999</v>
       </c>
-      <c r="AH29" s="7">
+      <c r="AH29" s="5">
         <v>0.18428215000000001</v>
       </c>
-      <c r="AI29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="5">
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
         <v>1</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AL29" s="3">
         <v>1</v>
       </c>
-      <c r="AM29" s="5">
+      <c r="AM29" s="3">
         <v>8.2659009999999995</v>
       </c>
-      <c r="AN29" s="5">
+      <c r="AN29" s="3">
         <v>1</v>
       </c>
-      <c r="AO29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="5">
+      <c r="AO29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="3">
         <v>185856</v>
       </c>
-      <c r="AR29" s="5">
+      <c r="AR29" s="3">
         <v>101376</v>
       </c>
-      <c r="AS29" s="5">
+      <c r="AS29" s="3">
         <v>5052929</v>
       </c>
-      <c r="AT29" s="5">
+      <c r="AT29" s="3">
         <v>16896</v>
       </c>
-      <c r="AU29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="5">
+      <c r="AU29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="3">
         <v>4</v>
       </c>
-      <c r="AW29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="5">
+      <c r="AW29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="3">
         <v>2045735</v>
       </c>
-      <c r="AY29" s="5">
+      <c r="AY29" s="3">
         <v>3965</v>
       </c>
-      <c r="AZ29" s="5">
+      <c r="AZ29" s="3">
         <v>7130408</v>
       </c>
-      <c r="BA29" s="5">
+      <c r="BA29" s="3">
         <v>16973</v>
       </c>
-      <c r="BB29" s="5" t="s">
+      <c r="BB29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BC29" s="5" t="s">
+      <c r="BC29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BD29" s="5" t="s">
+      <c r="BD29" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="BE29" s="5" t="s">
+      <c r="BE29" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="BF29" s="5" t="s">
+      <c r="BF29" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="BG29" s="5" t="s">
+      <c r="BG29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="BH29" s="5" t="s">
+      <c r="BH29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BI29" s="5" t="s">
+      <c r="BI29" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="BJ29" s="7">
+      <c r="BJ29" s="5">
         <v>0.80795561000000005</v>
       </c>
-      <c r="BK29" s="5">
+      <c r="BK29" s="3">
         <v>396449</v>
       </c>
-      <c r="BL29" s="5">
+      <c r="BL29" s="3">
         <v>374897</v>
       </c>
-      <c r="BM29" s="5">
+      <c r="BM29" s="3">
         <v>5812816</v>
       </c>
-      <c r="BN29" s="5">
+      <c r="BN29" s="3">
         <v>915426</v>
       </c>
-      <c r="BO29" s="5">
+      <c r="BO29" s="3">
         <v>11942768</v>
       </c>
-      <c r="BP29" s="5">
+      <c r="BP29" s="3">
         <v>523776</v>
       </c>
-      <c r="BQ29" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR29" s="5">
+      <c r="BQ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="3">
         <v>5709496</v>
       </c>
-      <c r="BS29" s="5">
-        <v>0</v>
-      </c>
-      <c r="BT29" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU29" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV29" s="5">
-        <v>0</v>
-      </c>
-      <c r="BW29" s="5">
-        <v>0</v>
-      </c>
-      <c r="BX29" s="7">
+      <c r="BS29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="5">
         <v>8.5626599999999997E-3</v>
       </c>
-      <c r="BY29" s="7">
+      <c r="BY29" s="5">
         <v>4.3893580000000001E-2</v>
       </c>
-      <c r="BZ29" s="7">
+      <c r="BZ29" s="5">
         <v>6.7085610000000004E-2</v>
       </c>
-      <c r="CA29" s="7">
-        <v>0</v>
-      </c>
-      <c r="CB29" s="7">
-        <v>0</v>
-      </c>
-      <c r="CC29" s="7">
+      <c r="CA29" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC29" s="5">
         <v>6.4317200000000001E-3</v>
       </c>
-      <c r="CD29" s="5" t="s">
+      <c r="CD29" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CE29" s="5" t="s">
+      <c r="CE29" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="CF29" s="5" t="s">
+      <c r="CF29" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CG29" s="5" t="s">
+      <c r="CG29" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CH29" s="5" t="s">
+      <c r="CH29" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CI29" s="5" t="s">
+      <c r="CI29" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="CJ29" s="5" t="s">
+      <c r="CJ29" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CK29" s="5" t="s">
+      <c r="CK29" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CL29" s="5" t="s">
+      <c r="CL29" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CM29" s="5">
+      <c r="CM29" s="6">
         <v>3729324</v>
       </c>
-      <c r="CN29" s="5">
+      <c r="CN29" s="6">
         <v>9146845</v>
       </c>
-      <c r="CO29" s="5">
+      <c r="CO29" s="3">
         <v>8337521</v>
       </c>
-      <c r="CP29" s="5" t="s">
+      <c r="CP29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CQ29" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR29" s="7">
-        <v>0</v>
-      </c>
-      <c r="CS29" s="5" t="s">
+      <c r="CQ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR29" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CT29" s="7">
-        <v>0</v>
-      </c>
-      <c r="CU29" s="5" t="s">
+      <c r="CT29" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CV29" s="5">
+      <c r="CV29" s="3">
         <v>6233272</v>
       </c>
-      <c r="CW29" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX29" s="5">
+      <c r="CW29" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX29" s="3">
         <v>55709284</v>
       </c>
-      <c r="CY29" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ29" s="5">
+      <c r="CY29" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ29" s="3">
         <v>2982533</v>
       </c>
-      <c r="DA29" s="5">
+      <c r="DA29" s="3">
         <v>20355624</v>
       </c>
-      <c r="DB29" s="5">
+      <c r="DB29" s="3">
         <v>7895354</v>
       </c>
-      <c r="DC29" s="5">
-        <v>0</v>
-      </c>
-      <c r="DD29" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE29" s="5">
-        <v>0</v>
-      </c>
-      <c r="DF29" s="5">
-        <v>0</v>
-      </c>
-      <c r="DG29" s="5">
+      <c r="DC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG29" s="3">
         <v>7130322</v>
       </c>
-      <c r="DH29" s="5">
+      <c r="DH29" s="3">
         <v>16896</v>
       </c>
-      <c r="DI29" s="5">
-        <v>0</v>
-      </c>
-      <c r="DJ29" s="5" t="s">
+      <c r="DI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ29" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="DK29" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL29" s="5">
+      <c r="DK29" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL29" s="3">
         <v>612854</v>
       </c>
-      <c r="DM29" s="5" t="s">
+      <c r="DM29" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="DN29" s="7">
+      <c r="DN29" s="5">
         <v>0.27642698999999998</v>
       </c>
-      <c r="DO29" s="7">
+      <c r="DO29" s="5">
         <v>2.8914000000000001E-4</v>
       </c>
-      <c r="DP29" s="7">
+      <c r="DP29" s="5">
         <v>2.5628600000000001E-3</v>
       </c>
-      <c r="DQ29" s="7">
-        <v>0</v>
-      </c>
-      <c r="DR29" s="7">
+      <c r="DQ29" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR29" s="5">
         <v>0.16681886000000001</v>
       </c>
-      <c r="DS29" s="7">
+      <c r="DS29" s="5">
         <v>0.43049144</v>
       </c>
-      <c r="DT29" s="5">
+      <c r="DT29" s="3">
         <v>24.171949000000001</v>
       </c>
-      <c r="DU29" s="5" t="s">
+      <c r="DU29" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:142" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
         <v>0.94441472999999998</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <v>0.34561500000000001</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>0.89682499999999998</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="5">
         <v>0.94441472999999998</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="3">
         <v>0.34561500000000001</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="3">
         <v>1.346144</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="3">
         <v>1.139E-3</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="3">
         <v>1.1432199999999999</v>
       </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5" t="s">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
         <v>0.15216958999999999</v>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="5">
         <v>0.30088698000000003</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Y30" s="5">
         <v>0.79868366000000002</v>
       </c>
-      <c r="Z30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="5" t="s">
+      <c r="Z30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AB30" s="5" t="s">
+      <c r="AB30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AC30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="7">
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
         <v>0.82016454000000005</v>
       </c>
-      <c r="AE30" s="5" t="s">
+      <c r="AE30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AF30" s="3">
         <v>0.81086400000000003</v>
       </c>
-      <c r="AG30" s="5">
+      <c r="AG30" s="3">
         <v>219.44270800000001</v>
       </c>
-      <c r="AH30" s="7">
+      <c r="AH30" s="5">
         <v>0.17657227</v>
       </c>
-      <c r="AI30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="5">
+      <c r="AI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3">
         <v>1</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AL30" s="3">
         <v>1.0392159999999999</v>
       </c>
-      <c r="AM30" s="5">
+      <c r="AM30" s="3">
         <v>8.3340289999999992</v>
       </c>
-      <c r="AN30" s="5">
+      <c r="AN30" s="3">
         <v>1</v>
       </c>
-      <c r="AO30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="5">
+      <c r="AO30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="3">
         <v>209664</v>
       </c>
-      <c r="AR30" s="5">
+      <c r="AR30" s="3">
         <v>106848</v>
       </c>
-      <c r="AS30" s="5">
+      <c r="AS30" s="3">
         <v>4597734</v>
       </c>
-      <c r="AT30" s="5">
+      <c r="AT30" s="3">
         <v>16128</v>
       </c>
-      <c r="AU30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="5">
+      <c r="AU30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="3">
         <v>13</v>
       </c>
-      <c r="AW30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="5">
+      <c r="AW30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="3">
         <v>1877013</v>
       </c>
-      <c r="AY30" s="5">
+      <c r="AY30" s="3">
         <v>3511</v>
       </c>
-      <c r="AZ30" s="5">
+      <c r="AZ30" s="3">
         <v>6491317</v>
       </c>
-      <c r="BA30" s="5">
+      <c r="BA30" s="3">
         <v>16181</v>
       </c>
-      <c r="BB30" s="5" t="s">
+      <c r="BB30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BC30" s="5" t="s">
+      <c r="BC30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BD30" s="5" t="s">
+      <c r="BD30" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="BE30" s="5" t="s">
+      <c r="BE30" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="BF30" s="5" t="s">
+      <c r="BF30" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="BG30" s="5" t="s">
+      <c r="BG30" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="BH30" s="5" t="s">
+      <c r="BH30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BI30" s="5" t="s">
+      <c r="BI30" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="BJ30" s="7">
+      <c r="BJ30" s="5">
         <v>0.78547133999999996</v>
       </c>
-      <c r="BK30" s="5">
+      <c r="BK30" s="3">
         <v>491461</v>
       </c>
-      <c r="BL30" s="5">
+      <c r="BL30" s="3">
         <v>387102</v>
       </c>
-      <c r="BM30" s="5">
+      <c r="BM30" s="3">
         <v>5218941</v>
       </c>
-      <c r="BN30" s="5">
+      <c r="BN30" s="3">
         <v>880290</v>
       </c>
-      <c r="BO30" s="5">
+      <c r="BO30" s="3">
         <v>10904462</v>
       </c>
-      <c r="BP30" s="5">
+      <c r="BP30" s="3">
         <v>499968</v>
       </c>
-      <c r="BQ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR30" s="5">
+      <c r="BQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="3">
         <v>5202247</v>
       </c>
-      <c r="BS30" s="5">
-        <v>0</v>
-      </c>
-      <c r="BT30" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU30" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV30" s="5">
-        <v>0</v>
-      </c>
-      <c r="BW30" s="5">
-        <v>0</v>
-      </c>
-      <c r="BX30" s="7">
+      <c r="BS30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="5">
         <v>1.331325E-2</v>
       </c>
-      <c r="BY30" s="7">
+      <c r="BY30" s="5">
         <v>4.2131979999999999E-2</v>
       </c>
-      <c r="BZ30" s="7">
+      <c r="BZ30" s="5">
         <v>4.7159119999999999E-2</v>
       </c>
-      <c r="CA30" s="7">
-        <v>0</v>
-      </c>
-      <c r="CB30" s="7">
+      <c r="CA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="5">
         <v>0.32428459999999998</v>
       </c>
-      <c r="CC30" s="7">
+      <c r="CC30" s="5">
         <v>4.2212899999999999E-3</v>
       </c>
-      <c r="CD30" s="5" t="s">
+      <c r="CD30" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CE30" s="5" t="s">
+      <c r="CE30" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="CF30" s="5" t="s">
+      <c r="CF30" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CG30" s="5" t="s">
+      <c r="CG30" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CH30" s="5" t="s">
+      <c r="CH30" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CI30" s="5" t="s">
+      <c r="CI30" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="CJ30" s="5" t="s">
+      <c r="CJ30" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CK30" s="5" t="s">
+      <c r="CK30" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CL30" s="5" t="s">
+      <c r="CL30" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CM30" s="5">
+      <c r="CM30" s="6">
         <v>3539172</v>
       </c>
-      <c r="CN30" s="5">
+      <c r="CN30" s="6">
         <v>8303407</v>
       </c>
-      <c r="CO30" s="5">
+      <c r="CO30" s="3">
         <v>7232543</v>
       </c>
-      <c r="CP30" s="5" t="s">
+      <c r="CP30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CQ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR30" s="7">
-        <v>0</v>
-      </c>
-      <c r="CS30" s="5" t="s">
+      <c r="CQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CT30" s="7">
-        <v>0</v>
-      </c>
-      <c r="CU30" s="5" t="s">
+      <c r="CT30" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU30" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CV30" s="5">
+      <c r="CV30" s="3">
         <v>5702215</v>
       </c>
-      <c r="CW30" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX30" s="5">
+      <c r="CW30" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX30" s="3">
         <v>50114275</v>
       </c>
-      <c r="CY30" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ30" s="5">
+      <c r="CY30" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ30" s="3">
         <v>3312311</v>
       </c>
-      <c r="DA30" s="5">
+      <c r="DA30" s="3">
         <v>18711381</v>
       </c>
-      <c r="DB30" s="5">
+      <c r="DB30" s="3">
         <v>8020627</v>
       </c>
-      <c r="DC30" s="5">
-        <v>0</v>
-      </c>
-      <c r="DD30" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE30" s="5">
-        <v>0</v>
-      </c>
-      <c r="DF30" s="5">
-        <v>0</v>
-      </c>
-      <c r="DG30" s="5">
+      <c r="DC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG30" s="3">
         <v>6491177</v>
       </c>
-      <c r="DH30" s="5">
+      <c r="DH30" s="3">
         <v>16128</v>
       </c>
-      <c r="DI30" s="5">
-        <v>0</v>
-      </c>
-      <c r="DJ30" s="5" t="s">
+      <c r="DI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ30" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="DK30" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL30" s="5">
+      <c r="DK30" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL30" s="3">
         <v>571488</v>
       </c>
-      <c r="DM30" s="5" t="s">
+      <c r="DM30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="DN30" s="7">
+      <c r="DN30" s="5">
         <v>0.15972075999999999</v>
       </c>
-      <c r="DO30" s="7">
+      <c r="DO30" s="5">
         <v>1.5176999999999999E-4</v>
       </c>
-      <c r="DP30" s="7">
+      <c r="DP30" s="5">
         <v>2.6189500000000001E-3</v>
       </c>
-      <c r="DQ30" s="7">
-        <v>0</v>
-      </c>
-      <c r="DR30" s="7">
+      <c r="DQ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR30" s="5">
         <v>0.16188853</v>
       </c>
-      <c r="DS30" s="7">
+      <c r="DS30" s="5">
         <v>0.24712869000000001</v>
       </c>
-      <c r="DT30" s="5">
+      <c r="DT30" s="3">
         <v>14.617008999999999</v>
       </c>
-      <c r="DU30" s="5" t="s">
+      <c r="DU30" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:142" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
         <v>0.94552628999999999</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>0.33979999999999999</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>0.88909300000000002</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>0.94552628999999999</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="3">
         <v>0.33979999999999999</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="3">
         <v>1.437746</v>
       </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
         <v>1.163897</v>
       </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5" t="s">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31" s="7">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
         <v>0.11580882000000001</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="5">
         <v>0.30137998999999999</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="5">
         <v>0.79823708999999998</v>
       </c>
-      <c r="Z31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="5" t="s">
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AB31" s="5" t="s">
+      <c r="AB31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AC31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="7">
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
         <v>0.82372511999999998</v>
       </c>
-      <c r="AE31" s="5" t="s">
+      <c r="AE31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AF31" s="3">
         <v>0.82887200000000005</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AG31" s="3">
         <v>215.54427100000001</v>
       </c>
-      <c r="AH31" s="7">
+      <c r="AH31" s="5">
         <v>0.18609490000000001</v>
       </c>
-      <c r="AI31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="5">
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3">
         <v>1</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AL31" s="3">
         <v>1</v>
       </c>
-      <c r="AM31" s="5">
+      <c r="AM31" s="3">
         <v>8.583437</v>
       </c>
-      <c r="AN31" s="5">
+      <c r="AN31" s="3">
         <v>1</v>
       </c>
-      <c r="AO31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="5">
+      <c r="AO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="3">
         <v>177408</v>
       </c>
-      <c r="AR31" s="5">
+      <c r="AR31" s="3">
         <v>96768</v>
       </c>
-      <c r="AS31" s="5">
+      <c r="AS31" s="3">
         <v>4579590</v>
       </c>
-      <c r="AT31" s="5">
+      <c r="AT31" s="3">
         <v>16128</v>
       </c>
-      <c r="AU31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="5">
+      <c r="AU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="3">
         <v>4</v>
       </c>
-      <c r="AW31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="5">
+      <c r="AW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="3">
         <v>1865963</v>
       </c>
-      <c r="AY31" s="5">
+      <c r="AY31" s="3">
         <v>3707</v>
       </c>
-      <c r="AZ31" s="5">
+      <c r="AZ31" s="3">
         <v>6481883</v>
       </c>
-      <c r="BA31" s="5">
+      <c r="BA31" s="3">
         <v>16211</v>
       </c>
-      <c r="BB31" s="5" t="s">
+      <c r="BB31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BC31" s="5" t="s">
+      <c r="BC31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BD31" s="5" t="s">
+      <c r="BD31" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="BE31" s="5" t="s">
+      <c r="BE31" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="BF31" s="5" t="s">
+      <c r="BF31" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="BG31" s="5" t="s">
+      <c r="BG31" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="BH31" s="5" t="s">
+      <c r="BH31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BI31" s="5" t="s">
+      <c r="BI31" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="BJ31" s="7">
+      <c r="BJ31" s="5">
         <v>0.79685835999999999</v>
       </c>
-      <c r="BK31" s="5">
+      <c r="BK31" s="3">
         <v>532201</v>
       </c>
-      <c r="BL31" s="5">
+      <c r="BL31" s="3">
         <v>387102</v>
       </c>
-      <c r="BM31" s="5">
+      <c r="BM31" s="3">
         <v>5270608</v>
       </c>
-      <c r="BN31" s="5">
+      <c r="BN31" s="3">
         <v>823842</v>
       </c>
-      <c r="BO31" s="5">
+      <c r="BO31" s="3">
         <v>10904462</v>
       </c>
-      <c r="BP31" s="5">
+      <c r="BP31" s="3">
         <v>499968</v>
       </c>
-      <c r="BQ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR31" s="5">
+      <c r="BQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="3">
         <v>5202247</v>
       </c>
-      <c r="BS31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BT31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BW31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BX31" s="7">
+      <c r="BS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="5">
         <v>7.4364399999999999E-3</v>
       </c>
-      <c r="BY31" s="7">
+      <c r="BY31" s="5">
         <v>4.3489489999999999E-2</v>
       </c>
-      <c r="BZ31" s="7">
+      <c r="BZ31" s="5">
         <v>5.9517170000000001E-2</v>
       </c>
-      <c r="CA31" s="7">
-        <v>0</v>
-      </c>
-      <c r="CB31" s="7">
-        <v>0</v>
-      </c>
-      <c r="CC31" s="7">
+      <c r="CA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC31" s="5">
         <v>2.7774200000000001E-3</v>
       </c>
-      <c r="CD31" s="5" t="s">
+      <c r="CD31" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CE31" s="5" t="s">
+      <c r="CE31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="CF31" s="5" t="s">
+      <c r="CF31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CG31" s="5" t="s">
+      <c r="CG31" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CH31" s="5" t="s">
+      <c r="CH31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CI31" s="5" t="s">
+      <c r="CI31" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="CJ31" s="5" t="s">
+      <c r="CJ31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CK31" s="5" t="s">
+      <c r="CK31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CL31" s="5" t="s">
+      <c r="CL31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CM31" s="5">
+      <c r="CM31" s="6">
         <v>3476298</v>
       </c>
-      <c r="CN31" s="5">
+      <c r="CN31" s="6">
         <v>8474333</v>
       </c>
-      <c r="CO31" s="5">
+      <c r="CO31" s="3">
         <v>7610490</v>
       </c>
-      <c r="CP31" s="5" t="s">
+      <c r="CP31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CQ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR31" s="7">
-        <v>0</v>
-      </c>
-      <c r="CS31" s="5" t="s">
+      <c r="CQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR31" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CT31" s="7">
-        <v>0</v>
-      </c>
-      <c r="CU31" s="5" t="s">
+      <c r="CT31" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CV31" s="5">
+      <c r="CV31" s="3">
         <v>5702215</v>
       </c>
-      <c r="CW31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX31" s="5">
+      <c r="CW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX31" s="3">
         <v>50110243</v>
       </c>
-      <c r="CY31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ31" s="5">
+      <c r="CY31" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ31" s="3">
         <v>2798231</v>
       </c>
-      <c r="DA31" s="5">
+      <c r="DA31" s="3">
         <v>18687189</v>
       </c>
-      <c r="DB31" s="5">
+      <c r="DB31" s="3">
         <v>7699046</v>
       </c>
-      <c r="DC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="DD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE31" s="5">
-        <v>0</v>
-      </c>
-      <c r="DF31" s="5">
-        <v>0</v>
-      </c>
-      <c r="DG31" s="5">
+      <c r="DC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG31" s="3">
         <v>6473033</v>
       </c>
-      <c r="DH31" s="5">
+      <c r="DH31" s="3">
         <v>16128</v>
       </c>
-      <c r="DI31" s="5">
-        <v>0</v>
-      </c>
-      <c r="DJ31" s="5" t="s">
+      <c r="DI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ31" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="DK31" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL31" s="5">
+      <c r="DK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL31" s="3">
         <v>559690</v>
       </c>
-      <c r="DM31" s="5" t="s">
+      <c r="DM31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="DN31" s="7">
+      <c r="DN31" s="5">
         <v>0.27727967999999997</v>
       </c>
-      <c r="DO31" s="7">
+      <c r="DO31" s="5">
         <v>3.20331E-3</v>
       </c>
-      <c r="DP31" s="7">
+      <c r="DP31" s="5">
         <v>2.6262E-3</v>
       </c>
-      <c r="DQ31" s="7">
-        <v>0</v>
-      </c>
-      <c r="DR31" s="7">
+      <c r="DQ31" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR31" s="5">
         <v>0.17316675000000001</v>
       </c>
-      <c r="DS31" s="7">
+      <c r="DS31" s="5">
         <v>0.43312973999999999</v>
       </c>
-      <c r="DT31" s="5">
+      <c r="DT31" s="3">
         <v>24.938606</v>
       </c>
-      <c r="DU31" s="5" t="s">
+      <c r="DU31" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:142" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
         <v>0.94019072000000004</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <v>0.34313900000000003</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>0.88827900000000004</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>0.94019072000000004</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="3">
         <v>0.34313900000000003</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="3">
         <v>1.3850789999999999</v>
       </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1.1583969999999999</v>
       </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
         <v>0.96178229999999998</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="U32" s="5">
-        <v>0</v>
-      </c>
-      <c r="V32" s="7">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
         <v>0.11580882000000001</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="5">
         <v>0.30137998999999999</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="5">
         <v>0.79825084000000002</v>
       </c>
-      <c r="Z32" s="7">
+      <c r="Z32" s="5">
         <v>0.79256777</v>
       </c>
-      <c r="AA32" s="5" t="s">
+      <c r="AA32" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AB32" s="5" t="s">
+      <c r="AB32" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AC32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="7">
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
         <v>0.81777717000000005</v>
       </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AE32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AF32" s="5">
+      <c r="AF32" s="3">
         <v>0.81828500000000004</v>
       </c>
-      <c r="AG32" s="5">
+      <c r="AG32" s="3">
         <v>216.56770800000001</v>
       </c>
-      <c r="AH32" s="7">
+      <c r="AH32" s="5">
         <v>0.18137666999999999</v>
       </c>
-      <c r="AI32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="5">
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
         <v>1</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AL32" s="3">
         <v>1</v>
       </c>
-      <c r="AM32" s="5">
+      <c r="AM32" s="3">
         <v>8.583437</v>
       </c>
-      <c r="AN32" s="5">
+      <c r="AN32" s="3">
         <v>1</v>
       </c>
-      <c r="AO32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="5">
+      <c r="AO32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="3">
         <v>177408</v>
       </c>
-      <c r="AR32" s="5">
+      <c r="AR32" s="3">
         <v>96768</v>
       </c>
-      <c r="AS32" s="5">
+      <c r="AS32" s="3">
         <v>4579590</v>
       </c>
-      <c r="AT32" s="5">
+      <c r="AT32" s="3">
         <v>16128</v>
       </c>
-      <c r="AU32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="5">
+      <c r="AU32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="3">
         <v>10</v>
       </c>
-      <c r="AW32" s="5">
+      <c r="AW32" s="3">
         <v>258048</v>
       </c>
-      <c r="AX32" s="5">
+      <c r="AX32" s="3">
         <v>1879386</v>
       </c>
-      <c r="AY32" s="5">
+      <c r="AY32" s="3">
         <v>3618</v>
       </c>
-      <c r="AZ32" s="5">
+      <c r="AZ32" s="3">
         <v>6483044</v>
       </c>
-      <c r="BA32" s="5">
+      <c r="BA32" s="3">
         <v>16213</v>
       </c>
-      <c r="BB32" s="5" t="s">
+      <c r="BB32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BC32" s="5" t="s">
+      <c r="BC32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BD32" s="5" t="s">
+      <c r="BD32" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="BE32" s="5" t="s">
+      <c r="BE32" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="BF32" s="5" t="s">
+      <c r="BF32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="BG32" s="5" t="s">
+      <c r="BG32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="BH32" s="5" t="s">
+      <c r="BH32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BI32" s="5" t="s">
+      <c r="BI32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="BJ32" s="7">
+      <c r="BJ32" s="5">
         <v>0.79102877000000005</v>
       </c>
-      <c r="BK32" s="5">
+      <c r="BK32" s="3">
         <v>508186</v>
       </c>
-      <c r="BL32" s="5">
+      <c r="BL32" s="3">
         <v>387102</v>
       </c>
-      <c r="BM32" s="5">
+      <c r="BM32" s="3">
         <v>5242940</v>
       </c>
-      <c r="BN32" s="5">
+      <c r="BN32" s="3">
         <v>856098</v>
       </c>
-      <c r="BO32" s="5">
+      <c r="BO32" s="3">
         <v>10904462</v>
       </c>
-      <c r="BP32" s="5">
+      <c r="BP32" s="3">
         <v>499968</v>
       </c>
-      <c r="BQ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR32" s="5">
+      <c r="BQ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="3">
         <v>5202247</v>
       </c>
-      <c r="BS32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BT32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BW32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BX32" s="7">
+      <c r="BS32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX32" s="5">
         <v>8.3603600000000007E-3</v>
       </c>
-      <c r="BY32" s="7">
+      <c r="BY32" s="5">
         <v>4.2559E-2</v>
       </c>
-      <c r="BZ32" s="7">
+      <c r="BZ32" s="5">
         <v>8.5034349999999995E-2</v>
       </c>
-      <c r="CA32" s="7">
+      <c r="CA32" s="5">
         <v>3.8746000000000001E-4</v>
       </c>
-      <c r="CB32" s="7">
-        <v>0</v>
-      </c>
-      <c r="CC32" s="7">
+      <c r="CB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC32" s="5">
         <v>4.59327E-3</v>
       </c>
-      <c r="CD32" s="5" t="s">
+      <c r="CD32" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CE32" s="5" t="s">
+      <c r="CE32" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="CF32" s="5" t="s">
+      <c r="CF32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CG32" s="5" t="s">
+      <c r="CG32" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CH32" s="5" t="s">
+      <c r="CH32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CI32" s="5" t="s">
+      <c r="CI32" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="CJ32" s="5" t="s">
+      <c r="CJ32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CK32" s="5" t="s">
+      <c r="CK32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CL32" s="5" t="s">
+      <c r="CL32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="CM32" s="5">
+      <c r="CM32" s="6">
         <v>3492804</v>
       </c>
-      <c r="CN32" s="5">
+      <c r="CN32" s="6">
         <v>8330615</v>
       </c>
-      <c r="CO32" s="5">
+      <c r="CO32" s="3">
         <v>7386075</v>
       </c>
-      <c r="CP32" s="5" t="s">
+      <c r="CP32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CQ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="CR32" s="7">
-        <v>0</v>
-      </c>
-      <c r="CS32" s="5" t="s">
+      <c r="CQ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CT32" s="7">
-        <v>0</v>
-      </c>
-      <c r="CU32" s="5" t="s">
+      <c r="CT32" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="CV32" s="5">
+      <c r="CV32" s="3">
         <v>5702215</v>
       </c>
-      <c r="CW32" s="5">
-        <v>0</v>
-      </c>
-      <c r="CX32" s="5">
+      <c r="CW32" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX32" s="3">
         <v>49594147</v>
       </c>
-      <c r="CY32" s="5">
-        <v>0</v>
-      </c>
-      <c r="CZ32" s="5">
+      <c r="CY32" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ32" s="3">
         <v>2798231</v>
       </c>
-      <c r="DA32" s="5">
+      <c r="DA32" s="3">
         <v>19719381</v>
       </c>
-      <c r="DB32" s="5">
+      <c r="DB32" s="3">
         <v>7502515</v>
       </c>
-      <c r="DC32" s="5">
-        <v>0</v>
-      </c>
-      <c r="DD32" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE32" s="5">
-        <v>0</v>
-      </c>
-      <c r="DF32" s="5">
-        <v>0</v>
-      </c>
-      <c r="DG32" s="5">
+      <c r="DC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG32" s="3">
         <v>6473033</v>
       </c>
-      <c r="DH32" s="5">
+      <c r="DH32" s="3">
         <v>16128</v>
       </c>
-      <c r="DI32" s="5">
+      <c r="DI32" s="3">
         <v>9849</v>
       </c>
-      <c r="DJ32" s="5" t="s">
+      <c r="DJ32" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="DK32" s="5">
-        <v>0</v>
-      </c>
-      <c r="DL32" s="5">
+      <c r="DK32" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL32" s="3">
         <v>572093</v>
       </c>
-      <c r="DM32" s="5" t="s">
+      <c r="DM32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="DN32" s="7">
+      <c r="DN32" s="5">
         <v>0.27276486999999999</v>
       </c>
-      <c r="DO32" s="7">
+      <c r="DO32" s="5">
         <v>3.6252000000000002E-4</v>
       </c>
-      <c r="DP32" s="7">
+      <c r="DP32" s="5">
         <v>2.6225100000000002E-3</v>
       </c>
-      <c r="DQ32" s="7">
-        <v>0</v>
-      </c>
-      <c r="DR32" s="7">
+      <c r="DQ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="DR32" s="5">
         <v>0.17094129</v>
       </c>
-      <c r="DS32" s="7">
+      <c r="DS32" s="5">
         <v>0.41499687000000002</v>
       </c>
-      <c r="DT32" s="5">
+      <c r="DT32" s="3">
         <v>23.875112999999999</v>
       </c>
-      <c r="DU32" s="5" t="s">
+      <c r="DU32" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -8772,17 +8940,17 @@
       <c r="D33" s="1">
         <v>0.87466584999999997</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>0.637073</v>
       </c>
       <c r="F33">
         <v>0.88946700000000001</v>
       </c>
       <c r="G33" t="s">
+        <v>336</v>
+      </c>
+      <c r="H33" t="s">
         <v>337</v>
-      </c>
-      <c r="H33" t="s">
-        <v>338</v>
       </c>
       <c r="I33" s="1">
         <v>0.87466584999999997</v>
@@ -8806,19 +8974,19 @@
         <v>0.14485822000000001</v>
       </c>
       <c r="P33" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q33" t="s">
         <v>339</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>340</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>341</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>342</v>
-      </c>
-      <c r="T33" t="s">
-        <v>343</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -8839,10 +9007,10 @@
         <v>0.99707206000000004</v>
       </c>
       <c r="AA33" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB33" t="s">
         <v>343</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>344</v>
       </c>
       <c r="AC33" s="1">
         <v>0</v>
@@ -8926,22 +9094,22 @@
         <v>160</v>
       </c>
       <c r="BD33" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE33" t="s">
         <v>345</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BF33" t="s">
         <v>346</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BG33" t="s">
         <v>347</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>348</v>
       </c>
       <c r="BH33" t="s">
         <v>160</v>
       </c>
       <c r="BI33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BJ33" s="1">
         <v>0.78322563000000001</v>
@@ -9019,7 +9187,7 @@
         <v>234</v>
       </c>
       <c r="CI33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="CJ33" t="s">
         <v>234</v>
@@ -9030,10 +9198,10 @@
       <c r="CL33" t="s">
         <v>234</v>
       </c>
-      <c r="CM33">
+      <c r="CM33" s="7">
         <v>3072918</v>
       </c>
-      <c r="CN33">
+      <c r="CN33" s="7">
         <v>3932385</v>
       </c>
       <c r="CO33">
@@ -9100,7 +9268,7 @@
         <v>4219691</v>
       </c>
       <c r="DJ33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DK33">
         <v>0</v>
@@ -9109,7 +9277,7 @@
         <v>545320</v>
       </c>
       <c r="DM33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="DN33" s="1">
         <v>1.6784779999999999E-2</v>
@@ -9138,7 +9306,7 @@
     </row>
     <row r="34" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -9149,17 +9317,17 @@
       <c r="D34" s="1">
         <v>0.94551585000000005</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>0.33827600000000002</v>
       </c>
       <c r="F34">
         <v>0.89219599999999999</v>
       </c>
       <c r="G34" t="s">
+        <v>351</v>
+      </c>
+      <c r="H34" t="s">
         <v>352</v>
-      </c>
-      <c r="H34" t="s">
-        <v>353</v>
       </c>
       <c r="I34" s="1">
         <v>0.94551585000000005</v>
@@ -9186,16 +9354,16 @@
         <v>160</v>
       </c>
       <c r="Q34" t="s">
+        <v>353</v>
+      </c>
+      <c r="R34" t="s">
         <v>354</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>355</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>356</v>
-      </c>
-      <c r="T34" t="s">
-        <v>357</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -9216,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB34" t="s">
         <v>160</v>
@@ -9303,22 +9471,22 @@
         <v>160</v>
       </c>
       <c r="BD34" t="s">
+        <v>357</v>
+      </c>
+      <c r="BE34" t="s">
         <v>358</v>
       </c>
-      <c r="BE34" t="s">
+      <c r="BF34" t="s">
         <v>359</v>
       </c>
-      <c r="BF34" t="s">
+      <c r="BG34" t="s">
         <v>360</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>361</v>
       </c>
       <c r="BH34" t="s">
         <v>160</v>
       </c>
       <c r="BI34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BJ34" s="1">
         <v>0.79550198000000005</v>
@@ -9407,10 +9575,10 @@
       <c r="CL34" t="s">
         <v>238</v>
       </c>
-      <c r="CM34">
+      <c r="CM34" s="7">
         <v>3492804</v>
       </c>
-      <c r="CN34">
+      <c r="CN34" s="7">
         <v>8445532</v>
       </c>
       <c r="CO34">
@@ -9477,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="DJ34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="DK34">
         <v>0</v>
@@ -9486,7 +9654,7 @@
         <v>559301</v>
       </c>
       <c r="DM34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="DN34" s="1">
         <v>0.27897270000000002</v>
@@ -9515,7 +9683,7 @@
     </row>
     <row r="35" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -9526,17 +9694,17 @@
       <c r="D35" s="1">
         <v>0.95081837000000002</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>8.1463999999999995E-2</v>
       </c>
       <c r="F35">
         <v>0.75495699999999999</v>
       </c>
       <c r="G35" t="s">
+        <v>365</v>
+      </c>
+      <c r="H35" t="s">
         <v>366</v>
-      </c>
-      <c r="H35" t="s">
-        <v>367</v>
       </c>
       <c r="I35" s="1">
         <v>0.95081837000000002</v>
@@ -9560,19 +9728,19 @@
         <v>0.96228608999999998</v>
       </c>
       <c r="P35" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q35" t="s">
         <v>368</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>369</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>370</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>371</v>
-      </c>
-      <c r="T35" t="s">
-        <v>372</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -9593,10 +9761,10 @@
         <v>0.79512395000000002</v>
       </c>
       <c r="AA35" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB35" t="s">
         <v>372</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>373</v>
       </c>
       <c r="AC35" s="1">
         <v>0</v>
@@ -9680,16 +9848,16 @@
         <v>160</v>
       </c>
       <c r="BD35" t="s">
+        <v>373</v>
+      </c>
+      <c r="BE35" t="s">
         <v>374</v>
       </c>
-      <c r="BE35" t="s">
+      <c r="BF35" t="s">
         <v>375</v>
       </c>
-      <c r="BF35" t="s">
+      <c r="BG35" t="s">
         <v>376</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>377</v>
       </c>
       <c r="BH35" t="s">
         <v>160</v>
@@ -9776,7 +9944,7 @@
         <v>234</v>
       </c>
       <c r="CJ35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="CK35" t="s">
         <v>243</v>
@@ -9784,10 +9952,10 @@
       <c r="CL35" t="s">
         <v>234</v>
       </c>
-      <c r="CM35">
+      <c r="CM35" s="7">
         <v>3283080</v>
       </c>
-      <c r="CN35">
+      <c r="CN35" s="7">
         <v>45159144</v>
       </c>
       <c r="CO35">
@@ -9854,7 +10022,7 @@
         <v>9762</v>
       </c>
       <c r="DJ35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="DK35">
         <v>0</v>
@@ -9863,7 +10031,7 @@
         <v>575843</v>
       </c>
       <c r="DM35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DN35" s="1">
         <v>0.57392184000000002</v>
@@ -9892,7 +10060,7 @@
     </row>
     <row r="36" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -9903,17 +10071,17 @@
       <c r="D36" s="1">
         <v>0.91469641000000002</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>0.60967400000000005</v>
       </c>
       <c r="F36">
         <v>0.80752100000000004</v>
       </c>
       <c r="G36" t="s">
+        <v>380</v>
+      </c>
+      <c r="H36" t="s">
         <v>381</v>
-      </c>
-      <c r="H36" t="s">
-        <v>382</v>
       </c>
       <c r="I36" s="1">
         <v>0.91469641000000002</v>
@@ -9937,19 +10105,19 @@
         <v>8.7189810000000006E-2</v>
       </c>
       <c r="P36" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q36" t="s">
         <v>383</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>384</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>385</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>386</v>
-      </c>
-      <c r="T36" t="s">
-        <v>387</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -9970,10 +10138,10 @@
         <v>0.99987789999999999</v>
       </c>
       <c r="AA36" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB36" t="s">
         <v>388</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>389</v>
       </c>
       <c r="AC36" s="1">
         <v>0.97216743000000005</v>
@@ -10057,22 +10225,22 @@
         <v>160</v>
       </c>
       <c r="BD36" t="s">
+        <v>389</v>
+      </c>
+      <c r="BE36" t="s">
         <v>390</v>
       </c>
-      <c r="BE36" t="s">
+      <c r="BF36" t="s">
         <v>391</v>
       </c>
-      <c r="BF36" t="s">
+      <c r="BG36" t="s">
         <v>392</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>393</v>
       </c>
       <c r="BH36" t="s">
         <v>160</v>
       </c>
       <c r="BI36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BJ36" s="1">
         <v>0.78172019999999998</v>
@@ -10138,7 +10306,7 @@
         <v>234</v>
       </c>
       <c r="CE36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CF36" t="s">
         <v>234</v>
@@ -10150,7 +10318,7 @@
         <v>234</v>
       </c>
       <c r="CI36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="CJ36" t="s">
         <v>234</v>
@@ -10161,10 +10329,10 @@
       <c r="CL36" t="s">
         <v>234</v>
       </c>
-      <c r="CM36">
+      <c r="CM36" s="7">
         <v>3301863</v>
       </c>
-      <c r="CN36">
+      <c r="CN36" s="7">
         <v>4059614</v>
       </c>
       <c r="CO36">
@@ -10231,7 +10399,7 @@
         <v>4946702</v>
       </c>
       <c r="DJ36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DK36">
         <v>0</v>
@@ -10240,7 +10408,7 @@
         <v>636247</v>
       </c>
       <c r="DM36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="DN36" s="1">
         <v>1.5857860000000001E-2</v>
@@ -10269,7 +10437,7 @@
     </row>
     <row r="37" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -10280,17 +10448,17 @@
       <c r="D37" s="1">
         <v>0.87358345000000004</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>0.64555499999999999</v>
       </c>
       <c r="F37">
         <v>0.87572499999999998</v>
       </c>
       <c r="G37" t="s">
+        <v>397</v>
+      </c>
+      <c r="H37" t="s">
         <v>398</v>
-      </c>
-      <c r="H37" t="s">
-        <v>399</v>
       </c>
       <c r="I37" s="1">
         <v>0.87358345000000004</v>
@@ -10314,19 +10482,19 @@
         <v>0.14580224999999999</v>
       </c>
       <c r="P37" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q37" t="s">
         <v>400</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>401</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>402</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>403</v>
-      </c>
-      <c r="T37" t="s">
-        <v>404</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -10347,10 +10515,10 @@
         <v>1.0031531600000001</v>
       </c>
       <c r="AA37" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB37" t="s">
         <v>404</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>405</v>
       </c>
       <c r="AC37" s="1">
         <v>0</v>
@@ -10434,22 +10602,22 @@
         <v>160</v>
       </c>
       <c r="BD37" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE37" t="s">
         <v>406</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BF37" t="s">
         <v>407</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BG37" t="s">
         <v>408</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>409</v>
       </c>
       <c r="BH37" t="s">
         <v>160</v>
       </c>
       <c r="BI37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BJ37" s="1">
         <v>0.78322554</v>
@@ -10527,7 +10695,7 @@
         <v>234</v>
       </c>
       <c r="CI37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="CJ37" t="s">
         <v>234</v>
@@ -10538,10 +10706,10 @@
       <c r="CL37" t="s">
         <v>234</v>
       </c>
-      <c r="CM37">
+      <c r="CM37" s="7">
         <v>3072918</v>
       </c>
-      <c r="CN37">
+      <c r="CN37" s="7">
         <v>3945591</v>
       </c>
       <c r="CO37">
@@ -10608,7 +10776,7 @@
         <v>4212606</v>
       </c>
       <c r="DJ37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="DK37">
         <v>0</v>
@@ -10617,7 +10785,7 @@
         <v>546266</v>
       </c>
       <c r="DM37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="DN37" s="1">
         <v>1.7731480000000001E-2</v>
@@ -10646,7 +10814,7 @@
     </row>
     <row r="38" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -10657,17 +10825,17 @@
       <c r="D38" s="1">
         <v>0.96186605999999997</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>0.32583600000000001</v>
       </c>
       <c r="F38">
         <v>0.91561000000000003</v>
       </c>
       <c r="G38" t="s">
+        <v>412</v>
+      </c>
+      <c r="H38" t="s">
         <v>413</v>
-      </c>
-      <c r="H38" t="s">
-        <v>414</v>
       </c>
       <c r="I38" s="1">
         <v>0.96186605999999997</v>
@@ -10691,19 +10859,19 @@
         <v>0.61695219999999995</v>
       </c>
       <c r="P38" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q38" t="s">
         <v>415</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>416</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>417</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>418</v>
-      </c>
-      <c r="T38" t="s">
-        <v>419</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -10724,10 +10892,10 @@
         <v>3.8085090000000002E-2</v>
       </c>
       <c r="AA38" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB38" t="s">
         <v>419</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>420</v>
       </c>
       <c r="AC38" s="1">
         <v>0</v>
@@ -10811,22 +10979,22 @@
         <v>160</v>
       </c>
       <c r="BD38" t="s">
+        <v>420</v>
+      </c>
+      <c r="BE38" t="s">
         <v>421</v>
       </c>
-      <c r="BE38" t="s">
+      <c r="BF38" t="s">
         <v>422</v>
       </c>
-      <c r="BF38" t="s">
+      <c r="BG38" t="s">
         <v>423</v>
-      </c>
-      <c r="BG38" t="s">
-        <v>424</v>
       </c>
       <c r="BH38" t="s">
         <v>160</v>
       </c>
       <c r="BI38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BJ38" s="1">
         <v>0.80282105999999998</v>
@@ -10904,7 +11072,7 @@
         <v>234</v>
       </c>
       <c r="CI38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="CJ38" t="s">
         <v>234</v>
@@ -10915,10 +11083,10 @@
       <c r="CL38" t="s">
         <v>234</v>
       </c>
-      <c r="CM38">
+      <c r="CM38" s="7">
         <v>2910488</v>
       </c>
-      <c r="CN38">
+      <c r="CN38" s="7">
         <v>7071790</v>
       </c>
       <c r="CO38">
@@ -10985,7 +11153,7 @@
         <v>1371639</v>
       </c>
       <c r="DJ38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DK38">
         <v>0</v>
@@ -10994,7 +11162,7 @@
         <v>576599</v>
       </c>
       <c r="DM38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="DN38" s="1">
         <v>2.6914239999999999E-2</v>
@@ -11019,6 +11187,214 @@
       </c>
       <c r="DU38" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM40" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL41" s="6">
+        <v>7528197</v>
+      </c>
+      <c r="CM41" s="6">
+        <v>809324</v>
+      </c>
+      <c r="CN41" s="3">
+        <f>CL41+CM41</f>
+        <v>8337521</v>
+      </c>
+      <c r="CO41" s="3">
+        <f>CN29-CN41</f>
+        <v>809324</v>
+      </c>
+      <c r="CP41" s="3">
+        <f>CO41/CN41</f>
+        <v>9.7070100333180573E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL42" s="6">
+        <v>6161679</v>
+      </c>
+      <c r="CM42" s="6">
+        <v>1070864</v>
+      </c>
+      <c r="CN42" s="3">
+        <f t="shared" ref="CN42:CN50" si="1">CL42+CM42</f>
+        <v>7232543</v>
+      </c>
+      <c r="CO42" s="3">
+        <f t="shared" ref="CO42:CO50" si="2">CN30-CN42</f>
+        <v>1070864</v>
+      </c>
+      <c r="CP42" s="3">
+        <f t="shared" ref="CP42:CP50" si="3">CO42/CN42</f>
+        <v>0.14806189192376734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL43" s="6">
+        <v>6746647</v>
+      </c>
+      <c r="CM43" s="6">
+        <v>863843</v>
+      </c>
+      <c r="CN43" s="3">
+        <f t="shared" si="1"/>
+        <v>7610490</v>
+      </c>
+      <c r="CO43" s="3">
+        <f t="shared" si="2"/>
+        <v>863843</v>
+      </c>
+      <c r="CP43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11350688326244433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL44" s="6">
+        <v>6441535</v>
+      </c>
+      <c r="CM44" s="6">
+        <v>944540</v>
+      </c>
+      <c r="CN44" s="3">
+        <f t="shared" si="1"/>
+        <v>7386075</v>
+      </c>
+      <c r="CO44" s="3">
+        <f t="shared" si="2"/>
+        <v>944540</v>
+      </c>
+      <c r="CP44" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12788118181848951</v>
+      </c>
+    </row>
+    <row r="45" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL45" s="7">
+        <v>2478135</v>
+      </c>
+      <c r="CM45" s="7">
+        <v>727125</v>
+      </c>
+      <c r="CN45" s="3">
+        <f t="shared" si="1"/>
+        <v>3205260</v>
+      </c>
+      <c r="CO45" s="3">
+        <f t="shared" si="2"/>
+        <v>727125</v>
+      </c>
+      <c r="CP45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.22685367177701654</v>
+      </c>
+    </row>
+    <row r="46" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL46" s="7">
+        <v>6927078</v>
+      </c>
+      <c r="CM46" s="7">
+        <v>759227</v>
+      </c>
+      <c r="CN46" s="3">
+        <f t="shared" si="1"/>
+        <v>7686305</v>
+      </c>
+      <c r="CO46" s="3">
+        <f t="shared" si="2"/>
+        <v>759227</v>
+      </c>
+      <c r="CP46" s="3">
+        <f t="shared" si="3"/>
+        <v>9.8776590312250168E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL47" s="7">
+        <v>42899856</v>
+      </c>
+      <c r="CM47" s="7">
+        <v>1129644</v>
+      </c>
+      <c r="CN47" s="3">
+        <f t="shared" si="1"/>
+        <v>44029500</v>
+      </c>
+      <c r="CO47" s="3">
+        <f t="shared" si="2"/>
+        <v>1129644</v>
+      </c>
+      <c r="CP47" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5656525738425372E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="CL48" s="7">
+        <v>2441918</v>
+      </c>
+      <c r="CM48" s="7">
+        <v>808848</v>
+      </c>
+      <c r="CN48" s="3">
+        <f t="shared" si="1"/>
+        <v>3250766</v>
+      </c>
+      <c r="CO48" s="3">
+        <f t="shared" si="2"/>
+        <v>808848</v>
+      </c>
+      <c r="CP48" s="3">
+        <f t="shared" si="3"/>
+        <v>0.24881766328305391</v>
+      </c>
+    </row>
+    <row r="49" spans="90:94" x14ac:dyDescent="0.2">
+      <c r="CL49" s="7">
+        <v>2488031</v>
+      </c>
+      <c r="CM49" s="7">
+        <v>728780</v>
+      </c>
+      <c r="CN49" s="3">
+        <f t="shared" si="1"/>
+        <v>3216811</v>
+      </c>
+      <c r="CO49" s="3">
+        <f t="shared" si="2"/>
+        <v>728780</v>
+      </c>
+      <c r="CP49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.22655356500583965</v>
+      </c>
+    </row>
+    <row r="50" spans="90:94" x14ac:dyDescent="0.2">
+      <c r="CL50" s="7">
+        <v>6220888</v>
+      </c>
+      <c r="CM50" s="7">
+        <v>425451</v>
+      </c>
+      <c r="CN50" s="3">
+        <f t="shared" si="1"/>
+        <v>6646339</v>
+      </c>
+      <c r="CO50" s="3">
+        <f t="shared" si="2"/>
+        <v>425451</v>
+      </c>
+      <c r="CP50" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4012834735032317E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11030,7 +11406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
@@ -11061,22 +11437,22 @@
         <v>324</v>
       </c>
       <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
         <v>364</v>
       </c>
-      <c r="G1" t="s">
-        <v>365</v>
-      </c>
       <c r="H1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11271,22 +11647,22 @@
         <v>306</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -11306,22 +11682,22 @@
         <v>307</v>
       </c>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -11586,22 +11962,22 @@
         <v>308</v>
       </c>
       <c r="F16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G16" t="s">
         <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -11621,22 +11997,22 @@
         <v>309</v>
       </c>
       <c r="F17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -11656,22 +12032,22 @@
         <v>310</v>
       </c>
       <c r="F18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -11691,22 +12067,22 @@
         <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -11726,22 +12102,22 @@
         <v>312</v>
       </c>
       <c r="F20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -11971,22 +12347,22 @@
         <v>312</v>
       </c>
       <c r="F27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -12006,22 +12382,22 @@
         <v>313</v>
       </c>
       <c r="F28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G28" t="s">
         <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -12986,22 +13362,22 @@
         <v>314</v>
       </c>
       <c r="F56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -13021,22 +13397,22 @@
         <v>315</v>
       </c>
       <c r="F57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -13056,22 +13432,22 @@
         <v>316</v>
       </c>
       <c r="F58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -13091,22 +13467,22 @@
         <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -13161,22 +13537,22 @@
         <v>318</v>
       </c>
       <c r="F61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H61" t="s">
         <v>160</v>
       </c>
       <c r="I61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -13940,7 +14316,7 @@
         <v>240</v>
       </c>
       <c r="I83" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J83" t="s">
         <v>243</v>
@@ -14071,7 +14447,7 @@
         <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G87" t="s">
         <v>243</v>
@@ -14080,13 +14456,13 @@
         <v>234</v>
       </c>
       <c r="I87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -14112,7 +14488,7 @@
         <v>234</v>
       </c>
       <c r="H88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I88" t="s">
         <v>234</v>
@@ -15016,22 +15392,22 @@
         <v>311</v>
       </c>
       <c r="F114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J114" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K114" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -15121,22 +15497,22 @@
         <v>319</v>
       </c>
       <c r="F117" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G117" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H117" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J117" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K117" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -15424,7 +15800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K267"/>
   <sheetViews>
@@ -15457,22 +15833,22 @@
         <v>324</v>
       </c>
       <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
         <v>364</v>
       </c>
-      <c r="G1" t="s">
-        <v>365</v>
-      </c>
       <c r="H1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">

--- a/spmv_prof/prof/spmv_nvprof.xlsx
+++ b/spmv_prof/prof/spmv_nvprof.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="30580" yWindow="-11980" windowWidth="33420" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
@@ -1435,11 +1435,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="E28" sqref="E28:E38"/>
@@ -1735,15 +1735,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:267" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2012,7 +2012,7 @@
       <c r="A7" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2033,35 +2033,35 @@
       <c r="I7" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>5544355</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>3072918</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>2478135</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>727125</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>80939542</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>3932385</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>26.339636137378218</v>
       </c>
-      <c r="CW7" s="11"/>
+      <c r="CW7" s="10"/>
     </row>
     <row r="8" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2082,35 +2082,35 @@
       <c r="I8" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>10920296</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>3492804</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>6927078</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>759227</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>91902700</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>8445532</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="0"/>
         <v>26.312011781937951</v>
       </c>
-      <c r="CW8" s="11"/>
+      <c r="CW8" s="10"/>
     </row>
     <row r="9" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2131,35 +2131,35 @@
       <c r="I9" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>43169960</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>3283080</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>42899856</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>1129644</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>387283284</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>45159144</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="0"/>
         <v>117.96340144011111</v>
       </c>
-      <c r="CW9" s="11"/>
+      <c r="CW9" s="10"/>
     </row>
     <row r="10" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2180,35 +2180,35 @@
       <c r="I10" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>5920853</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>3301863</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>2441918</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>808848</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>86290312</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>4059614</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="0"/>
         <v>26.133825661452338</v>
       </c>
-      <c r="CW10" s="11"/>
+      <c r="CW10" s="10"/>
     </row>
     <row r="11" spans="1:267" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2229,29 +2229,29 @@
       <c r="I11" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>5454729</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>3072918</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>2488031</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>728780</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>80939548</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>3945591</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="0"/>
         <v>26.339638089919745</v>
       </c>
-      <c r="CW11" s="11"/>
+      <c r="CW11" s="10"/>
     </row>
     <row r="12" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -2278,22 +2278,22 @@
       <c r="I12" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>9289887</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>2910488</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>6220888</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>425451</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>78337270</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>7071790</v>
       </c>
       <c r="P12" s="8">
